--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G2" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
         <v>4.1</v>
@@ -682,7 +682,7 @@
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.42</v>
@@ -691,19 +691,19 @@
         <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P2" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S2" t="n">
         <v>4</v>
@@ -712,7 +712,7 @@
         <v>1.92</v>
       </c>
       <c r="U2" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V2" t="n">
         <v>1.34</v>
@@ -805,7 +805,7 @@
         <v>1.16</v>
       </c>
       <c r="G3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G4" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="K4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>2.78</v>
       </c>
       <c r="O5" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P5" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="Q5" t="n">
         <v>2.64</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y5" t="n">
         <v>12</v>
@@ -1174,7 +1174,7 @@
         <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
         <v>150</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="G8" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L8" t="n">
         <v>1.37</v>
@@ -1501,7 +1501,7 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1516,73 +1516,73 @@
         <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W8" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="X8" t="n">
         <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB8" t="n">
         <v>10.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE8" t="n">
         <v>70</v>
       </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
         <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.94</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.98</v>
       </c>
       <c r="J9" t="n">
         <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q9" t="n">
         <v>2.24</v>
@@ -1759,7 +1759,7 @@
         <v>16</v>
       </c>
       <c r="J10" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="K10" t="n">
         <v>6.8</v>
@@ -1792,7 +1792,7 @@
         <v>2.38</v>
       </c>
       <c r="U10" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>350</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
@@ -1912,22 +1912,22 @@
         <v>1.37</v>
       </c>
       <c r="P11" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R11" t="n">
         <v>1.32</v>
       </c>
       <c r="S11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T11" t="n">
         <v>1.85</v>
       </c>
       <c r="U11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,37 +1936,37 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
         <v>7.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -1975,19 +1975,19 @@
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -694,7 +694,7 @@
         <v>2.64</v>
       </c>
       <c r="O2" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P2" t="n">
         <v>1.65</v>
@@ -805,7 +805,7 @@
         <v>1.16</v>
       </c>
       <c r="G3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="H6" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="I6" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>980</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
         <v>1.01</v>
@@ -1645,7 +1645,7 @@
         <v>1.55</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1906,25 +1906,25 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="O11" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P11" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R11" t="n">
         <v>1.32</v>
       </c>
       <c r="S11" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="T11" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U11" t="n">
         <v>2.1</v>
@@ -1936,10 +1936,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
         <v>18.5</v>
@@ -1948,7 +1948,7 @@
         <v>46</v>
       </c>
       <c r="AB11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC11" t="n">
         <v>7.4</v>
@@ -1966,28 +1966,28 @@
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM11" t="n">
         <v>130</v>
       </c>
       <c r="AN11" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AO11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:10:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Digenis Ypsona</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia FC</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.32</v>
+        <v>1.84</v>
       </c>
       <c r="G2" t="n">
-        <v>2.62</v>
+        <v>2.12</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K2" t="n">
         <v>4.1</v>
       </c>
-      <c r="J2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Digenis Ypsona</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Olympiakos Nicosia FC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.16</v>
+        <v>2.34</v>
       </c>
       <c r="G3" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.24</v>
       </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,31 +928,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.72</v>
+        <v>1.16</v>
       </c>
       <c r="G4" t="n">
-        <v>1.89</v>
+        <v>1.25</v>
       </c>
       <c r="H4" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3.95</v>
+        <v>6.4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,66 +1058,66 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.12</v>
+        <v>1.71</v>
       </c>
       <c r="G5" t="n">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.8</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.15</v>
-      </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.57</v>
+        <v>2.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.64</v>
+        <v>1.61</v>
       </c>
       <c r="R5" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,64 +1126,64 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,61 +1198,61 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="G6" t="n">
-        <v>2.68</v>
+        <v>2.14</v>
       </c>
       <c r="H6" t="n">
-        <v>1.59</v>
+        <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>980</v>
+        <v>3.15</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>2.64</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,58 +1261,58 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -1333,31 +1333,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>2.86</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>980</v>
+        <v>6.8</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.15</v>
+        <v>2.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="G8" t="n">
-        <v>2.28</v>
+        <v>2.88</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>2.58</v>
       </c>
       <c r="I8" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="J8" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>3.75</v>
+        <v>6.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.92</v>
+        <v>1.31</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J9" t="n">
         <v>2.96</v>
       </c>
-      <c r="G9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
       <c r="K9" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.55</v>
+        <v>1.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.46</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,66 +1733,66 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.26</v>
+        <v>2.94</v>
       </c>
       <c r="G10" t="n">
-        <v>1.29</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>14.5</v>
+        <v>2.7</v>
       </c>
       <c r="I10" t="n">
-        <v>16</v>
+        <v>2.96</v>
       </c>
       <c r="J10" t="n">
-        <v>6.4</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>6.8</v>
+        <v>3.35</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.34</v>
+        <v>1.61</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.7</v>
+        <v>2.14</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,64 +1801,64 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,66 +1868,66 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.8</v>
+        <v>1.26</v>
       </c>
       <c r="G11" t="n">
-        <v>2.88</v>
+        <v>1.29</v>
       </c>
       <c r="H11" t="n">
-        <v>2.8</v>
+        <v>14.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.84</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>6.6</v>
       </c>
       <c r="K11" t="n">
-        <v>3.45</v>
+        <v>6.8</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>3.45</v>
+        <v>4.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>1.83</v>
+        <v>2.34</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.14</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>3.95</v>
+        <v>2.78</v>
       </c>
       <c r="T11" t="n">
-        <v>1.86</v>
+        <v>2.38</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,57 +1936,192 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.5</v>
+        <v>44</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.5</v>
+        <v>160</v>
       </c>
       <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>350</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH11" t="n">
         <v>46</v>
       </c>
-      <c r="AB11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI11" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK11" t="n">
-        <v>36</v>
+        <v>15.5</v>
       </c>
       <c r="AL11" t="n">
         <v>50</v>
       </c>
       <c r="AM11" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM12" t="n">
         <v>130</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN12" t="n">
         <v>34</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO12" t="n">
         <v>34</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -1075,7 +1075,7 @@
         <v>1.71</v>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H5" t="n">
         <v>4.4</v>
@@ -1087,7 +1087,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>990</v>
       </c>
       <c r="AM6" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO6" t="n">
         <v>150</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q7" t="n">
         <v>1.56</v>
@@ -1480,19 +1480,19 @@
         <v>2.24</v>
       </c>
       <c r="G8" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="H8" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="I8" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q10" t="n">
         <v>2.14</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G11" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H11" t="n">
         <v>14.5</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
         <v>44</v>
@@ -1960,7 +1960,7 @@
         <v>350</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
@@ -2020,10 +2020,10 @@
         <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I12" t="n">
         <v>2.82</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -970,7 +970,7 @@
         <v>2.16</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>20</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="n">
         <v>12</v>
@@ -1309,7 +1309,7 @@
         <v>190</v>
       </c>
       <c r="AN6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO6" t="n">
         <v>150</v>
@@ -1480,7 +1480,7 @@
         <v>2.24</v>
       </c>
       <c r="G8" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H8" t="n">
         <v>2.66</v>
@@ -1489,7 +1489,7 @@
         <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
         <v>4.9</v>
@@ -1615,13 +1615,13 @@
         <v>2.02</v>
       </c>
       <c r="G9" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H9" t="n">
         <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J9" t="n">
         <v>2.96</v>
@@ -1630,13 +1630,13 @@
         <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1663,7 +1663,7 @@
         <v>1.27</v>
       </c>
       <c r="W9" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
@@ -1753,16 +1753,16 @@
         <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I10" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J10" t="n">
         <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1927,7 +1927,7 @@
         <v>2.38</v>
       </c>
       <c r="U11" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,13 +1936,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
         <v>44</v>
       </c>
       <c r="Z11" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
@@ -1951,7 +1951,7 @@
         <v>8.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD11" t="n">
         <v>60</v>
@@ -1966,13 +1966,13 @@
         <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
         <v>15.5</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G12" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="H12" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I12" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="J12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.35</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.45</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2041,7 +2041,7 @@
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O12" t="n">
         <v>1.39</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -670,13 +670,13 @@
         <v>1.84</v>
       </c>
       <c r="G2" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="H2" t="n">
         <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>3.45</v>
@@ -685,94 +685,94 @@
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -835,7 +835,7 @@
         <v>1.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R3" t="n">
         <v>1.24</v>
@@ -940,7 +940,7 @@
         <v>1.16</v>
       </c>
       <c r="G4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H4" t="n">
         <v>5</v>
@@ -970,7 +970,7 @@
         <v>2.16</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
         <v>150</v>
@@ -1345,20 +1345,20 @@
         <v>2.02</v>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>2.08</v>
       </c>
       <c r="H7" t="n">
-        <v>2.86</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K7" t="n">
         <v>4.4</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.8</v>
-      </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.04</v>
+        <v>2.44</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G8" t="n">
         <v>2.76</v>
       </c>
       <c r="H8" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I8" t="n">
         <v>3.4</v>
@@ -1510,7 +1510,7 @@
         <v>3.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G9" t="n">
         <v>2.24</v>
@@ -1621,10 +1621,10 @@
         <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K9" t="n">
         <v>3.75</v>
@@ -1645,7 +1645,7 @@
         <v>1.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R9" t="n">
         <v>1.28</v>
@@ -1660,7 +1660,7 @@
         <v>1.96</v>
       </c>
       <c r="V9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W9" t="n">
         <v>1.8</v>
@@ -1684,7 +1684,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
         <v>70</v>
@@ -1780,7 +1780,7 @@
         <v>1.62</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1885,7 +1885,7 @@
         <v>1.27</v>
       </c>
       <c r="G11" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="H11" t="n">
         <v>14.5</v>
@@ -1918,7 +1918,7 @@
         <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S11" t="n">
         <v>2.78</v>
@@ -1942,7 +1942,7 @@
         <v>44</v>
       </c>
       <c r="Z11" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G12" t="n">
         <v>2.88</v>
@@ -2026,13 +2026,13 @@
         <v>2.82</v>
       </c>
       <c r="I12" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J12" t="n">
         <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="G2" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -709,7 +709,7 @@
         <v>3.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
@@ -721,10 +721,10 @@
         <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
         <v>42</v>
@@ -745,7 +745,7 @@
         <v>75</v>
       </c>
       <c r="AF2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
         <v>12.5</v>
@@ -769,7 +769,7 @@
         <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>85</v>
@@ -943,7 +943,7 @@
         <v>1.22</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
         <v>1000</v>
@@ -952,19 +952,19 @@
         <v>6.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
         <v>2.16</v>
@@ -973,76 +973,76 @@
         <v>1.69</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1090,16 +1090,16 @@
         <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
         <v>2.28</v>
@@ -1108,76 +1108,76 @@
         <v>1.63</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -1213,7 +1213,7 @@
         <v>2.14</v>
       </c>
       <c r="H6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
         <v>4.8</v>
@@ -1225,7 +1225,7 @@
         <v>3.15</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
@@ -1255,64 +1255,64 @@
         <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="X6" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y6" t="n">
         <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AB6" t="n">
         <v>7</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
       </c>
       <c r="AI6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO6" t="n">
         <v>120</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>990</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -1351,103 +1351,103 @@
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J7" t="n">
         <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S7" t="n">
         <v>2.44</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="T7" t="n">
         <v>1.55</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -1477,34 +1477,34 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G8" t="n">
         <v>2.76</v>
       </c>
       <c r="H8" t="n">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="I8" t="n">
         <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P8" t="n">
         <v>3.1</v>
@@ -1513,82 +1513,82 @@
         <v>1.37</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
-        <v>2.24</v>
+        <v>2.56</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>2.94</v>
       </c>
       <c r="I9" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.36</v>
       </c>
-      <c r="P9" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.28</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.94</v>
+        <v>1.78</v>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>1.92</v>
       </c>
       <c r="H10" t="n">
-        <v>2.72</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>2.94</v>
+        <v>4.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.62</v>
+        <v>2.92</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.36</v>
+        <v>1.41</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,260 +1868,530 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.27</v>
+        <v>2.04</v>
       </c>
       <c r="G11" t="n">
-        <v>1.29</v>
+        <v>2.24</v>
       </c>
       <c r="H11" t="n">
-        <v>14.5</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>16</v>
+        <v>4.6</v>
       </c>
       <c r="J11" t="n">
-        <v>6.6</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>6.8</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>4.9</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>2.34</v>
+        <v>1.74</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.99</v>
       </c>
       <c r="R11" t="n">
-        <v>1.54</v>
+        <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>2.78</v>
+        <v>3.75</v>
       </c>
       <c r="T11" t="n">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="U11" t="n">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN11" t="n">
         <v>23</v>
       </c>
-      <c r="Y11" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>350</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>300</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.7</v>
-      </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>US Cremonese</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>16</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>350</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>2026-01-12</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Sevilla</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Celta Vigo</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="F14" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G14" t="n">
         <v>2.88</v>
       </c>
-      <c r="H12" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="H14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.3</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K14" t="n">
         <v>3.4</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>1.09</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N14" t="n">
         <v>3.45</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O14" t="n">
         <v>1.39</v>
       </c>
-      <c r="P12" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="P14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U14" t="n">
         <v>2.08</v>
       </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y14" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z14" t="n">
         <v>18.5</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA14" t="n">
         <v>46</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB14" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD12" t="n">
+      <c r="AC14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD14" t="n">
         <v>13</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE14" t="n">
         <v>34</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF14" t="n">
         <v>18.5</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG14" t="n">
         <v>13</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH14" t="n">
         <v>18.5</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI14" t="n">
         <v>50</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK12" t="n">
+      <c r="AJ14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK14" t="n">
         <v>36</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL14" t="n">
         <v>50</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM14" t="n">
         <v>130</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN14" t="n">
         <v>34</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO14" t="n">
         <v>34</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="H2" t="n">
         <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
@@ -694,7 +694,7 @@
         <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
         <v>1.89</v>
@@ -703,10 +703,10 @@
         <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="S2" t="n">
-        <v>3.3</v>
+        <v>1.91</v>
       </c>
       <c r="T2" t="n">
         <v>1.79</v>
@@ -715,10 +715,10 @@
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -727,52 +727,52 @@
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
@@ -835,16 +835,16 @@
         <v>1.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R3" t="n">
         <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="n">
         <v>1.89</v>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
@@ -970,7 +970,7 @@
         <v>2.16</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="R4" t="n">
         <v>1.38</v>
@@ -982,7 +982,7 @@
         <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="V4" t="n">
         <v>1.02</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="G5" t="n">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="H5" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>980</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,88 +1096,88 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.28</v>
+        <v>1.45</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.63</v>
+        <v>1.2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S5" t="n">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
       <c r="T5" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W5" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y5" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Z5" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AE5" t="n">
         <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6">
@@ -1225,7 +1225,7 @@
         <v>3.15</v>
       </c>
       <c r="L6" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
@@ -1252,7 +1252,7 @@
         <v>2.18</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V6" t="n">
         <v>1.26</v>
@@ -1264,7 +1264,7 @@
         <v>8.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
         <v>30</v>
@@ -1291,7 +1291,7 @@
         <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
         <v>110</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="G7" t="n">
         <v>2.08</v>
@@ -1351,43 +1351,43 @@
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>980</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>2.16</v>
       </c>
       <c r="O7" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="Q7" t="n">
         <v>1.57</v>
       </c>
       <c r="R7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.57</v>
       </c>
-      <c r="S7" t="n">
-        <v>2.44</v>
-      </c>
       <c r="T7" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>2.46</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
         <v>1.35</v>
@@ -1396,58 +1396,58 @@
         <v>1.92</v>
       </c>
       <c r="X7" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="G8" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
-        <v>2.82</v>
+        <v>2.66</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
         <v>4.7</v>
@@ -1501,79 +1501,79 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>3.1</v>
+        <v>1.79</v>
       </c>
       <c r="O8" t="n">
         <v>1.11</v>
       </c>
       <c r="P8" t="n">
-        <v>3.1</v>
+        <v>1.78</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="R8" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S8" t="n">
         <v>1.79</v>
       </c>
       <c r="T8" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W8" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AC8" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1612,46 +1612,46 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G9" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
         <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R9" t="n">
-        <v>1.05</v>
+        <v>1.74</v>
       </c>
       <c r="S9" t="n">
-        <v>1.35</v>
+        <v>1.87</v>
       </c>
       <c r="T9" t="n">
         <v>1.01</v>
@@ -1663,55 +1663,55 @@
         <v>1.36</v>
       </c>
       <c r="W9" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
         <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG9" t="n">
         <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN9" t="n">
         <v>1000</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G10" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
         <v>4.2</v>
@@ -1768,91 +1768,91 @@
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>2.92</v>
+        <v>6.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R10" t="n">
-        <v>1.05</v>
+        <v>1.77</v>
       </c>
       <c r="S10" t="n">
-        <v>1.41</v>
+        <v>2.04</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W10" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G11" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
         <v>4.6</v>
@@ -1900,76 +1900,76 @@
         <v>3.75</v>
       </c>
       <c r="L11" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.2</v>
+        <v>1.25</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>1.74</v>
+        <v>1.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.99</v>
+        <v>1.36</v>
       </c>
       <c r="R11" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S11" t="n">
-        <v>3.75</v>
+        <v>1.36</v>
       </c>
       <c r="T11" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U11" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
         <v>1.28</v>
       </c>
       <c r="W11" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
         <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
         <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
         <v>980</v>
@@ -1981,13 +1981,13 @@
         <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AO11" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
+        <v>980</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.2</v>
       </c>
-      <c r="H12" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P12" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.36</v>
+        <v>1.48</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2170,7 +2170,7 @@
         <v>6.8</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2182,10 +2182,10 @@
         <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
         <v>1.53</v>
@@ -2197,25 +2197,25 @@
         <v>2.38</v>
       </c>
       <c r="U13" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
         <v>44</v>
       </c>
       <c r="Z13" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="AB13" t="n">
         <v>8.6</v>
@@ -2224,40 +2224,40 @@
         <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE13" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="AF13" t="n">
         <v>7.2</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AN13" t="n">
         <v>4.7</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14">
@@ -2305,28 +2305,28 @@
         <v>3.4</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
         <v>3.45</v>
       </c>
       <c r="O14" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P14" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R14" t="n">
         <v>1.3</v>
       </c>
       <c r="S14" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T14" t="n">
         <v>1.88</v>
@@ -2335,64 +2335,64 @@
         <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X14" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y14" t="n">
         <v>10.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
         <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF14" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
         <v>18.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM14" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G2" t="n">
         <v>1.97</v>
@@ -679,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -694,7 +694,7 @@
         <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
         <v>1.89</v>
@@ -703,13 +703,13 @@
         <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>1.91</v>
+        <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
@@ -721,25 +721,25 @@
         <v>2.02</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z2" t="n">
         <v>980</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>70</v>
@@ -748,13 +748,13 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="n">
         <v>980</v>
@@ -766,13 +766,13 @@
         <v>980</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -805,43 +805,43 @@
         <v>2.34</v>
       </c>
       <c r="G3" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.64</v>
+        <v>2.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
         <v>1.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R3" t="n">
         <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="T3" t="n">
         <v>1.89</v>
@@ -850,7 +850,7 @@
         <v>1.89</v>
       </c>
       <c r="V3" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W3" t="n">
         <v>1.6</v>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>2.18</v>
+        <v>4.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
@@ -973,28 +973,28 @@
         <v>1.66</v>
       </c>
       <c r="R4" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="S4" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="U4" t="n">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="V4" t="n">
         <v>1.02</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1006,22 +1006,22 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AG4" t="n">
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1030,16 +1030,16 @@
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,109 +1075,109 @@
         <v>1.74</v>
       </c>
       <c r="G5" t="n">
-        <v>2.14</v>
+        <v>1.86</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>1.45</v>
+        <v>2.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="R5" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S5" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="V5" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W5" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="X5" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL5" t="n">
         <v>32</v>
       </c>
-      <c r="Y5" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AM5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO5" t="n">
         <v>60</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>980</v>
       </c>
     </row>
     <row r="6">
@@ -1246,7 +1246,7 @@
         <v>1.21</v>
       </c>
       <c r="S6" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="T6" t="n">
         <v>2.18</v>
@@ -1264,7 +1264,7 @@
         <v>8.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
         <v>30</v>
@@ -1291,7 +1291,7 @@
         <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
         <v>110</v>
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="G7" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>980</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>2.16</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R7" t="n">
-        <v>1.22</v>
+        <v>1.55</v>
       </c>
       <c r="S7" t="n">
-        <v>1.57</v>
+        <v>2.44</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="V7" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W7" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H8" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
         <v>3.95</v>
@@ -1501,34 +1501,34 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>1.79</v>
+        <v>2.66</v>
       </c>
       <c r="O8" t="n">
         <v>1.11</v>
       </c>
       <c r="P8" t="n">
-        <v>1.78</v>
+        <v>2.64</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="R8" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="S8" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="U8" t="n">
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="W8" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1552,7 +1552,7 @@
         <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF8" t="n">
         <v>980</v>
@@ -1615,109 +1615,109 @@
         <v>2.08</v>
       </c>
       <c r="G9" t="n">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="H9" t="n">
         <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="R9" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="S9" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>2.92</v>
       </c>
       <c r="V9" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="W9" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="X9" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="Y9" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="Z9" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AC9" t="n">
         <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
         <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="10">
@@ -1750,19 +1750,19 @@
         <v>1.79</v>
       </c>
       <c r="G10" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H10" t="n">
         <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J10" t="n">
         <v>4.2</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,88 +1771,88 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>6.6</v>
+        <v>1.02</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P10" t="n">
-        <v>2.9</v>
+        <v>2.54</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="R10" t="n">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="S10" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="T10" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W10" t="n">
         <v>2.04</v>
       </c>
       <c r="X10" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1885,91 +1885,91 @@
         <v>2.02</v>
       </c>
       <c r="G11" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H11" t="n">
         <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
         <v>3.75</v>
       </c>
       <c r="L11" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>1.25</v>
+        <v>1.74</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.36</v>
+        <v>2.06</v>
       </c>
       <c r="R11" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>1.36</v>
+        <v>3.75</v>
       </c>
       <c r="T11" t="n">
         <v>1.84</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="V11" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W11" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z11" t="n">
         <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
         <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="n">
         <v>980</v>
@@ -1981,13 +1981,13 @@
         <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN11" t="n">
         <v>980</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G12" t="n">
-        <v>980</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="I12" t="n">
         <v>2.9</v>
       </c>
       <c r="J12" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.52</v>
+        <v>2.82</v>
       </c>
       <c r="O12" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P12" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.48</v>
+        <v>2.36</v>
       </c>
       <c r="R12" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -2155,22 +2155,22 @@
         <v>1.27</v>
       </c>
       <c r="G13" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H13" t="n">
         <v>14.5</v>
       </c>
       <c r="I13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="J13" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K13" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2185,7 +2185,7 @@
         <v>2.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
         <v>1.53</v>
@@ -2200,10 +2200,10 @@
         <v>1.68</v>
       </c>
       <c r="V13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="X13" t="n">
         <v>22</v>
@@ -2215,7 +2215,7 @@
         <v>160</v>
       </c>
       <c r="AA13" t="n">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
         <v>8.6</v>
@@ -2251,13 +2251,13 @@
         <v>46</v>
       </c>
       <c r="AM13" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="AN13" t="n">
         <v>4.7</v>
       </c>
       <c r="AO13" t="n">
-        <v>470</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14">
@@ -2287,37 +2287,37 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G14" t="n">
         <v>2.88</v>
       </c>
       <c r="H14" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I14" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J14" t="n">
         <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L14" t="n">
         <v>1.44</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
         <v>3.45</v>
       </c>
       <c r="O14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P14" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q14" t="n">
         <v>2.16</v>
@@ -2329,7 +2329,7 @@
         <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U14" t="n">
         <v>2.08</v>
@@ -2353,7 +2353,7 @@
         <v>44</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
         <v>7.2</v>
@@ -2371,7 +2371,7 @@
         <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
         <v>48</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -670,7 +670,7 @@
         <v>1.84</v>
       </c>
       <c r="G2" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H2" t="n">
         <v>4.2</v>
@@ -691,7 +691,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
@@ -700,10 +700,10 @@
         <v>1.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
         <v>3.35</v>
@@ -712,13 +712,13 @@
         <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V2" t="n">
         <v>1.26</v>
       </c>
       <c r="W2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X2" t="n">
         <v>17.5</v>
@@ -742,13 +742,13 @@
         <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -805,13 +805,13 @@
         <v>2.34</v>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="H3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
         <v>2.84</v>
@@ -823,7 +823,7 @@
         <v>1.43</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
         <v>2.9</v>
@@ -850,10 +850,10 @@
         <v>1.89</v>
       </c>
       <c r="V3" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W3" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC4" t="n">
         <v>980</v>
@@ -1075,16 +1075,16 @@
         <v>1.74</v>
       </c>
       <c r="G5" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
         <v>4.5</v>
@@ -1093,7 +1093,7 @@
         <v>1.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
         <v>4.7</v>
@@ -1114,7 +1114,7 @@
         <v>2.52</v>
       </c>
       <c r="T5" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U5" t="n">
         <v>2.26</v>
@@ -1123,7 +1123,7 @@
         <v>1.24</v>
       </c>
       <c r="W5" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X5" t="n">
         <v>26</v>
@@ -1132,10 +1132,10 @@
         <v>26</v>
       </c>
       <c r="Z5" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AA5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB5" t="n">
         <v>14</v>
@@ -1147,7 +1147,7 @@
         <v>24</v>
       </c>
       <c r="AE5" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
         <v>15</v>
@@ -1231,13 +1231,13 @@
         <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.54</v>
       </c>
       <c r="P6" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q6" t="n">
         <v>2.64</v>
@@ -1348,7 +1348,7 @@
         <v>2.26</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
         <v>3.75</v>
@@ -1360,7 +1360,7 @@
         <v>4.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1390,7 +1390,7 @@
         <v>2.44</v>
       </c>
       <c r="V7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W7" t="n">
         <v>1.79</v>
@@ -1501,10 +1501,10 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>2.66</v>
+        <v>6.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P8" t="n">
         <v>2.64</v>
@@ -1534,16 +1534,16 @@
         <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
         <v>1000</v>
@@ -1552,10 +1552,10 @@
         <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
         <v>1000</v>
@@ -1564,16 +1564,16 @@
         <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1627,10 +1627,10 @@
         <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
@@ -1684,7 +1684,7 @@
         <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>980</v>
@@ -1717,7 +1717,7 @@
         <v>10</v>
       </c>
       <c r="AO9" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1762,7 +1762,7 @@
         <v>4.2</v>
       </c>
       <c r="K10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1888,7 +1888,7 @@
         <v>2.24</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
         <v>4.5</v>
@@ -1900,10 +1900,10 @@
         <v>3.75</v>
       </c>
       <c r="L11" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
         <v>3.2</v>
@@ -1921,7 +1921,7 @@
         <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T11" t="n">
         <v>1.84</v>
@@ -1951,7 +1951,7 @@
         <v>10.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
         <v>21</v>
@@ -2026,7 +2026,7 @@
         <v>2.76</v>
       </c>
       <c r="I12" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J12" t="n">
         <v>3</v>
@@ -2161,7 +2161,7 @@
         <v>14.5</v>
       </c>
       <c r="I13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="J13" t="n">
         <v>6.8</v>
@@ -2185,7 +2185,7 @@
         <v>2.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
         <v>1.53</v>
@@ -2305,7 +2305,7 @@
         <v>3.35</v>
       </c>
       <c r="L14" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M14" t="n">
         <v>1.09</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -670,7 +670,7 @@
         <v>1.84</v>
       </c>
       <c r="G2" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H2" t="n">
         <v>4.2</v>
@@ -679,7 +679,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
@@ -697,7 +697,7 @@
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" t="n">
         <v>1.91</v>
@@ -718,13 +718,13 @@
         <v>1.26</v>
       </c>
       <c r="W2" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X2" t="n">
         <v>17.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="n">
         <v>980</v>
@@ -733,10 +733,10 @@
         <v>130</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -805,13 +805,13 @@
         <v>2.34</v>
       </c>
       <c r="G3" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
         <v>2.84</v>
@@ -820,7 +820,7 @@
         <v>3.55</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -850,7 +850,7 @@
         <v>1.89</v>
       </c>
       <c r="V3" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W3" t="n">
         <v>1.59</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
         <v>980</v>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
         <v>980</v>
@@ -1225,7 +1225,7 @@
         <v>3.15</v>
       </c>
       <c r="L6" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G7" t="n">
         <v>2.26</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
         <v>3.75</v>
@@ -1357,34 +1357,34 @@
         <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
         <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R7" t="n">
         <v>1.55</v>
       </c>
       <c r="S7" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T7" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U7" t="n">
         <v>2.44</v>
@@ -1396,10 +1396,10 @@
         <v>1.79</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z7" t="n">
         <v>34</v>
@@ -1408,13 +1408,13 @@
         <v>75</v>
       </c>
       <c r="AB7" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC7" t="n">
         <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE7" t="n">
         <v>42</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="G8" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
         <v>2.64</v>
       </c>
       <c r="I8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
         <v>3.95</v>
@@ -1495,94 +1495,94 @@
         <v>4.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="O8" t="n">
         <v>1.12</v>
       </c>
       <c r="P8" t="n">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="R8" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="S8" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W8" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="9">
@@ -1681,7 +1681,7 @@
         <v>980</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1771,28 +1771,28 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>1.02</v>
+        <v>6.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>2.54</v>
+        <v>2.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.13</v>
+        <v>1.41</v>
       </c>
       <c r="R10" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="S10" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="V10" t="n">
         <v>1.29</v>
@@ -1801,58 +1801,58 @@
         <v>2.04</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -1888,7 +1888,7 @@
         <v>2.24</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
         <v>4.5</v>
@@ -1921,7 +1921,7 @@
         <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T11" t="n">
         <v>1.84</v>
@@ -2035,7 +2035,7 @@
         <v>3.05</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
@@ -2122,7 +2122,7 @@
         <v>60</v>
       </c>
       <c r="AO12" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -2161,7 +2161,7 @@
         <v>14.5</v>
       </c>
       <c r="I13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="J13" t="n">
         <v>6.8</v>
@@ -2185,7 +2185,7 @@
         <v>2.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
         <v>1.53</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -670,7 +670,7 @@
         <v>1.84</v>
       </c>
       <c r="G2" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H2" t="n">
         <v>4.2</v>
@@ -682,7 +682,7 @@
         <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
         <v>1.39</v>
@@ -697,7 +697,7 @@
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q2" t="n">
         <v>1.91</v>
@@ -718,7 +718,7 @@
         <v>1.26</v>
       </c>
       <c r="W2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X2" t="n">
         <v>17.5</v>
@@ -805,61 +805,61 @@
         <v>2.34</v>
       </c>
       <c r="G3" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="H3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
         <v>2.84</v>
       </c>
       <c r="K3" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P3" t="n">
         <v>1.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R3" t="n">
         <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="T3" t="n">
         <v>1.89</v>
       </c>
       <c r="U3" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W3" t="n">
         <v>1.59</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
         <v>8.800000000000001</v>
@@ -964,13 +964,13 @@
         <v>4.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
         <v>1.46</v>
@@ -979,10 +979,10 @@
         <v>2.7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="U4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="V4" t="n">
         <v>1.02</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AC4" t="n">
         <v>980</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="G5" t="n">
         <v>1.88</v>
@@ -1084,7 +1084,7 @@
         <v>5.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
         <v>4.5</v>
@@ -1093,7 +1093,7 @@
         <v>1.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
         <v>4.7</v>
@@ -1102,7 +1102,7 @@
         <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q5" t="n">
         <v>1.64</v>
@@ -1111,10 +1111,10 @@
         <v>1.52</v>
       </c>
       <c r="S5" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T5" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U5" t="n">
         <v>2.26</v>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM5" t="n">
         <v>90</v>
@@ -1360,13 +1360,13 @@
         <v>4.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
         <v>1.2</v>
@@ -1381,7 +1381,7 @@
         <v>1.55</v>
       </c>
       <c r="S7" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T7" t="n">
         <v>1.55</v>
@@ -1444,7 +1444,7 @@
         <v>70</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO7" t="n">
         <v>30</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="G8" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="H8" t="n">
-        <v>2.64</v>
+        <v>2.86</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J8" t="n">
         <v>3.95</v>
@@ -1516,19 +1516,19 @@
         <v>1.86</v>
       </c>
       <c r="S8" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="T8" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="U8" t="n">
         <v>3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="W8" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
@@ -1579,7 +1579,7 @@
         <v>980</v>
       </c>
       <c r="AN8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
         <v>14.5</v>
@@ -1651,7 +1651,7 @@
         <v>1.82</v>
       </c>
       <c r="S9" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T9" t="n">
         <v>1.42</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
         <v>1.96</v>
@@ -1765,7 +1765,7 @@
         <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
@@ -1780,13 +1780,13 @@
         <v>2.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R10" t="n">
         <v>1.77</v>
       </c>
       <c r="S10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T10" t="n">
         <v>1.47</v>
@@ -1888,13 +1888,13 @@
         <v>2.24</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
         <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
         <v>3.75</v>
@@ -1906,7 +1906,7 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -1915,7 +1915,7 @@
         <v>1.74</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R11" t="n">
         <v>1.28</v>
@@ -1951,7 +1951,7 @@
         <v>10.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD11" t="n">
         <v>21</v>
@@ -1975,19 +1975,19 @@
         <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AL11" t="n">
         <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -2023,7 +2023,7 @@
         <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="I12" t="n">
         <v>2.88</v>
@@ -2038,7 +2038,7 @@
         <v>1.53</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
         <v>2.82</v>
@@ -2062,13 +2062,13 @@
         <v>1.95</v>
       </c>
       <c r="U12" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V12" t="n">
         <v>1.53</v>
       </c>
       <c r="W12" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X12" t="n">
         <v>12</v>
@@ -2077,10 +2077,10 @@
         <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB12" t="n">
         <v>10.5</v>
@@ -2089,7 +2089,7 @@
         <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE12" t="n">
         <v>40</v>
@@ -2110,7 +2110,7 @@
         <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL12" t="n">
         <v>75</v>
@@ -2161,7 +2161,7 @@
         <v>14.5</v>
       </c>
       <c r="I13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="J13" t="n">
         <v>6.8</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -670,19 +670,19 @@
         <v>1.84</v>
       </c>
       <c r="G2" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J2" t="n">
         <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
         <v>1.39</v>
@@ -718,7 +718,7 @@
         <v>1.26</v>
       </c>
       <c r="W2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X2" t="n">
         <v>17.5</v>
@@ -805,13 +805,13 @@
         <v>2.34</v>
       </c>
       <c r="G3" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
         <v>2.84</v>
@@ -820,7 +820,7 @@
         <v>3.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -850,10 +850,10 @@
         <v>1.9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X3" t="n">
         <v>13</v>
@@ -1075,19 +1075,19 @@
         <v>1.76</v>
       </c>
       <c r="G5" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H5" t="n">
         <v>4.4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J5" t="n">
         <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.25</v>
@@ -1120,7 +1120,7 @@
         <v>2.26</v>
       </c>
       <c r="V5" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W5" t="n">
         <v>2.14</v>
@@ -1231,7 +1231,7 @@
         <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="O6" t="n">
         <v>1.54</v>
@@ -1345,10 +1345,10 @@
         <v>2.04</v>
       </c>
       <c r="G7" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
         <v>3.75</v>
@@ -1357,7 +1357,7 @@
         <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
@@ -1393,7 +1393,7 @@
         <v>1.37</v>
       </c>
       <c r="W7" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X7" t="n">
         <v>28</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="G8" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="H8" t="n">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="I8" t="n">
         <v>3.15</v>
@@ -1492,7 +1492,7 @@
         <v>3.95</v>
       </c>
       <c r="K8" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.18</v>
@@ -1525,10 +1525,10 @@
         <v>3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W8" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
@@ -1615,10 +1615,10 @@
         <v>2.08</v>
       </c>
       <c r="G9" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="I9" t="n">
         <v>3.35</v>
@@ -1654,7 +1654,7 @@
         <v>1.99</v>
       </c>
       <c r="T9" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="U9" t="n">
         <v>2.92</v>
@@ -1663,7 +1663,7 @@
         <v>1.42</v>
       </c>
       <c r="W9" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X9" t="n">
         <v>980</v>
@@ -1765,7 +1765,7 @@
         <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
@@ -1777,7 +1777,7 @@
         <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="Q10" t="n">
         <v>1.42</v>
@@ -1885,7 +1885,7 @@
         <v>2.02</v>
       </c>
       <c r="G11" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H11" t="n">
         <v>3.8</v>
@@ -1915,13 +1915,13 @@
         <v>1.74</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R11" t="n">
         <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T11" t="n">
         <v>1.84</v>
@@ -1933,7 +1933,7 @@
         <v>1.29</v>
       </c>
       <c r="W11" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X11" t="n">
         <v>15</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G12" t="n">
         <v>3.25</v>
@@ -2026,7 +2026,7 @@
         <v>2.74</v>
       </c>
       <c r="I12" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J12" t="n">
         <v>3</v>
@@ -2038,16 +2038,16 @@
         <v>1.53</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="O12" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P12" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q12" t="n">
         <v>2.36</v>
@@ -2056,16 +2056,16 @@
         <v>1.22</v>
       </c>
       <c r="S12" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U12" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V12" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W12" t="n">
         <v>1.44</v>
@@ -2074,19 +2074,19 @@
         <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z12" t="n">
         <v>18</v>
       </c>
       <c r="AA12" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB12" t="n">
         <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
         <v>13.5</v>
@@ -2098,31 +2098,31 @@
         <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ12" t="n">
         <v>60</v>
       </c>
       <c r="AK12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN12" t="n">
         <v>50</v>
       </c>
-      <c r="AL12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>60</v>
-      </c>
       <c r="AO12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -670,10 +670,10 @@
         <v>1.84</v>
       </c>
       <c r="G2" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
         <v>4.9</v>
@@ -805,16 +805,16 @@
         <v>2.34</v>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
         <v>3.5</v>
@@ -835,13 +835,13 @@
         <v>1.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
         <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="T3" t="n">
         <v>1.89</v>
@@ -850,10 +850,10 @@
         <v>1.9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W3" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X3" t="n">
         <v>13</v>
@@ -1084,7 +1084,7 @@
         <v>5.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
         <v>4.4</v>
@@ -1177,7 +1177,7 @@
         <v>10.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -1213,10 +1213,10 @@
         <v>2.14</v>
       </c>
       <c r="H6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I6" t="n">
         <v>4.7</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.8</v>
       </c>
       <c r="J6" t="n">
         <v>3.1</v>
@@ -1237,7 +1237,7 @@
         <v>1.54</v>
       </c>
       <c r="P6" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q6" t="n">
         <v>2.64</v>
@@ -1255,7 +1255,7 @@
         <v>1.81</v>
       </c>
       <c r="V6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W6" t="n">
         <v>1.87</v>
@@ -1345,7 +1345,7 @@
         <v>2.04</v>
       </c>
       <c r="G7" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H7" t="n">
         <v>3.25</v>
@@ -1393,7 +1393,7 @@
         <v>1.37</v>
       </c>
       <c r="W7" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X7" t="n">
         <v>28</v>
@@ -1480,10 +1480,10 @@
         <v>2.32</v>
       </c>
       <c r="G8" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="H8" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="I8" t="n">
         <v>3.15</v>
@@ -1492,7 +1492,7 @@
         <v>3.95</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L8" t="n">
         <v>1.18</v>
@@ -1516,7 +1516,7 @@
         <v>1.86</v>
       </c>
       <c r="S8" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T8" t="n">
         <v>1.4</v>
@@ -1528,7 +1528,7 @@
         <v>1.47</v>
       </c>
       <c r="W8" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
@@ -1615,13 +1615,13 @@
         <v>2.08</v>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H9" t="n">
         <v>2.94</v>
       </c>
       <c r="I9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
         <v>4.1</v>
@@ -1636,7 +1636,7 @@
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.13</v>
@@ -1645,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R9" t="n">
         <v>1.82</v>
@@ -1660,10 +1660,10 @@
         <v>2.92</v>
       </c>
       <c r="V9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W9" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="X9" t="n">
         <v>980</v>
@@ -1750,13 +1750,13 @@
         <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J10" t="n">
         <v>4.2</v>
@@ -1765,7 +1765,7 @@
         <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
@@ -1777,7 +1777,7 @@
         <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q10" t="n">
         <v>1.42</v>
@@ -1795,7 +1795,7 @@
         <v>2.66</v>
       </c>
       <c r="V10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W10" t="n">
         <v>2.04</v>
@@ -1885,7 +1885,7 @@
         <v>2.02</v>
       </c>
       <c r="G11" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H11" t="n">
         <v>3.8</v>
@@ -1894,13 +1894,13 @@
         <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -1909,7 +1909,7 @@
         <v>3.15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P11" t="n">
         <v>1.74</v>
@@ -1921,7 +1921,7 @@
         <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T11" t="n">
         <v>1.84</v>
@@ -1933,10 +1933,10 @@
         <v>1.29</v>
       </c>
       <c r="W11" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y11" t="n">
         <v>16.5</v>
@@ -1981,7 +1981,7 @@
         <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN11" t="n">
         <v>23</v>
@@ -2026,7 +2026,7 @@
         <v>2.74</v>
       </c>
       <c r="I12" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J12" t="n">
         <v>3</v>
@@ -2041,7 +2041,7 @@
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O12" t="n">
         <v>1.46</v>
@@ -2050,13 +2050,13 @@
         <v>1.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R12" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S12" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T12" t="n">
         <v>1.96</v>
@@ -2074,7 +2074,7 @@
         <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
         <v>18</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="G13" t="n">
         <v>1.28</v>
       </c>
       <c r="H13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="I13" t="n">
         <v>16</v>
@@ -2185,7 +2185,7 @@
         <v>2.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
         <v>1.53</v>
@@ -2200,7 +2200,7 @@
         <v>1.68</v>
       </c>
       <c r="V13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W13" t="n">
         <v>4.6</v>
@@ -2224,7 +2224,7 @@
         <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE13" t="n">
         <v>320</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G14" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H14" t="n">
         <v>2.82</v>
@@ -2317,7 +2317,7 @@
         <v>1.39</v>
       </c>
       <c r="P14" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q14" t="n">
         <v>2.16</v>
@@ -2338,10 +2338,10 @@
         <v>1.53</v>
       </c>
       <c r="W14" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
         <v>10.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:10:00</t>
+          <t>09:40:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.84</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.91</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="U2" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="V2" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AA2" t="n">
         <v>130</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF2" t="n">
         <v>970</v>
       </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO2" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:10:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Digenis Ypsona</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia FC</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.34</v>
+        <v>1.84</v>
       </c>
       <c r="G3" t="n">
-        <v>2.66</v>
+        <v>1.93</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>2.92</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.65</v>
+        <v>1.92</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="S3" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="U3" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="W3" t="n">
-        <v>1.61</v>
+        <v>2.06</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -928,73 +928,73 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Digenis Ypsona</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Olympiakos Nicosia FC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.16</v>
+        <v>2.34</v>
       </c>
       <c r="G4" t="n">
-        <v>1.22</v>
+        <v>2.72</v>
       </c>
       <c r="H4" t="n">
-        <v>21</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>55</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>7.2</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>4.4</v>
+        <v>2.92</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="P4" t="n">
-        <v>2.18</v>
+        <v>1.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>2.7</v>
+        <v>3.85</v>
       </c>
       <c r="T4" t="n">
-        <v>2.84</v>
+        <v>1.89</v>
       </c>
       <c r="U4" t="n">
-        <v>1.44</v>
+        <v>1.9</v>
       </c>
       <c r="V4" t="n">
-        <v>1.02</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>5.4</v>
+        <v>1.61</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>80</v>
+        <v>13.5</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,43 +1003,43 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.76</v>
+        <v>1.16</v>
       </c>
       <c r="G5" t="n">
-        <v>1.87</v>
+        <v>1.22</v>
       </c>
       <c r="H5" t="n">
+        <v>21</v>
+      </c>
+      <c r="I5" t="n">
+        <v>55</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
         <v>4.4</v>
       </c>
-      <c r="I5" t="n">
+      <c r="O5" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X5" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
         <v>5.1</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="X5" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AO5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.12</v>
+        <v>1.76</v>
       </c>
       <c r="G6" t="n">
-        <v>2.14</v>
+        <v>1.86</v>
       </c>
       <c r="H6" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
         <v>4.7</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.78</v>
-      </c>
       <c r="O6" t="n">
-        <v>1.54</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>1.57</v>
+        <v>2.26</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.64</v>
+        <v>1.64</v>
       </c>
       <c r="R6" t="n">
-        <v>1.21</v>
+        <v>1.52</v>
       </c>
       <c r="S6" t="n">
-        <v>5.6</v>
+        <v>2.56</v>
       </c>
       <c r="T6" t="n">
-        <v>2.18</v>
+        <v>1.64</v>
       </c>
       <c r="U6" t="n">
-        <v>1.81</v>
+        <v>2.28</v>
       </c>
       <c r="V6" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>1.87</v>
+        <v>2.16</v>
       </c>
       <c r="X6" t="n">
-        <v>8.4</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AA6" t="n">
         <v>120</v>
       </c>
       <c r="AB6" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>24</v>
       </c>
-      <c r="AI6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>27</v>
-      </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AM6" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="AN6" t="n">
-        <v>25</v>
+        <v>10.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="G7" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="L7" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>2.78</v>
       </c>
       <c r="O7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.2</v>
       </c>
-      <c r="P7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.55</v>
-      </c>
       <c r="S7" t="n">
-        <v>2.48</v>
+        <v>5.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.55</v>
+        <v>2.18</v>
       </c>
       <c r="U7" t="n">
-        <v>2.44</v>
+        <v>1.81</v>
       </c>
       <c r="V7" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="X7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK7" t="n">
         <v>28</v>
       </c>
-      <c r="Y7" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>24</v>
-      </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="AN7" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.32</v>
+        <v>2.04</v>
       </c>
       <c r="G8" t="n">
-        <v>2.54</v>
+        <v>2.26</v>
       </c>
       <c r="H8" t="n">
-        <v>2.72</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="J8" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>7.2</v>
+        <v>4.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>3.05</v>
+        <v>2.38</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="R8" t="n">
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="S8" t="n">
-        <v>1.95</v>
+        <v>2.48</v>
       </c>
       <c r="T8" t="n">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>2.44</v>
       </c>
       <c r="V8" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="W8" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AF8" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI8" t="n">
         <v>980</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO8" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,72 +1598,72 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="G9" t="n">
-        <v>2.26</v>
+        <v>2.52</v>
       </c>
       <c r="H9" t="n">
-        <v>2.94</v>
+        <v>2.72</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.13</v>
       </c>
       <c r="P9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U9" t="n">
         <v>3</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.92</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="W9" t="n">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="X9" t="n">
         <v>980</v>
@@ -1675,13 +1675,13 @@
         <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB9" t="n">
         <v>980</v>
       </c>
       <c r="AC9" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1693,10 +1693,10 @@
         <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI9" t="n">
         <v>980</v>
@@ -1711,13 +1711,13 @@
         <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AN9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="10">
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>2.12</v>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>2.26</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.2</v>
@@ -1774,91 +1774,91 @@
         <v>6.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="R10" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="S10" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="T10" t="n">
         <v>1.47</v>
       </c>
       <c r="U10" t="n">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="V10" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="W10" t="n">
-        <v>2.04</v>
+        <v>1.8</v>
       </c>
       <c r="X10" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AB10" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ10" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AO10" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="G11" t="n">
-        <v>2.28</v>
+        <v>1.93</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>3.15</v>
+        <v>6.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>1.74</v>
+        <v>2.9</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S11" t="n">
         <v>2.06</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.75</v>
-      </c>
       <c r="T11" t="n">
-        <v>1.84</v>
+        <v>1.48</v>
       </c>
       <c r="U11" t="n">
-        <v>1.97</v>
+        <v>2.72</v>
       </c>
       <c r="V11" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W11" t="n">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="X11" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC11" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AD11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK11" t="n">
         <v>21</v>
       </c>
-      <c r="AE11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>30</v>
-      </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO11" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.1</v>
+        <v>2.02</v>
       </c>
       <c r="G12" t="n">
-        <v>3.25</v>
+        <v>2.24</v>
       </c>
       <c r="H12" t="n">
-        <v>2.74</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>2.84</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="P12" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.38</v>
+        <v>2.06</v>
       </c>
       <c r="R12" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="T12" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.96</v>
       </c>
-      <c r="U12" t="n">
-        <v>1.92</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>1.44</v>
+        <v>1.81</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AA12" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AB12" t="n">
         <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.4</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG12" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AK12" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AL12" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AM12" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AN12" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,260 +2138,395 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.26</v>
+        <v>3.1</v>
       </c>
       <c r="G13" t="n">
-        <v>1.28</v>
+        <v>3.25</v>
       </c>
       <c r="H13" t="n">
-        <v>15</v>
+        <v>2.74</v>
       </c>
       <c r="I13" t="n">
-        <v>16</v>
+        <v>2.86</v>
       </c>
       <c r="J13" t="n">
-        <v>6.8</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>7</v>
+        <v>3.05</v>
       </c>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>4.9</v>
+        <v>2.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.46</v>
       </c>
       <c r="P13" t="n">
-        <v>2.36</v>
+        <v>1.65</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.69</v>
+        <v>2.38</v>
       </c>
       <c r="R13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.53</v>
       </c>
-      <c r="S13" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.06</v>
-      </c>
       <c r="W13" t="n">
-        <v>4.6</v>
+        <v>1.44</v>
       </c>
       <c r="X13" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK13" t="n">
         <v>44</v>
       </c>
-      <c r="Z13" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>320</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AL13" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.7</v>
+        <v>50</v>
       </c>
       <c r="AO13" t="n">
-        <v>450</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>US Cremonese</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="X14" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>320</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>240</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>2026-01-12</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Sevilla</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Celta Vigo</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="F15" t="n">
         <v>2.86</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>2.9</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>2.82</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>2.86</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J15" t="n">
         <v>3.3</v>
       </c>
-      <c r="K14" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="K15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L15" t="n">
         <v>1.47</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M15" t="n">
         <v>1.09</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N15" t="n">
         <v>3.45</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O15" t="n">
         <v>1.39</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P15" t="n">
         <v>1.82</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q15" t="n">
         <v>2.16</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R15" t="n">
         <v>1.3</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S15" t="n">
         <v>4</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T15" t="n">
         <v>1.87</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U15" t="n">
         <v>2.08</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V15" t="n">
         <v>1.53</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W15" t="n">
         <v>1.52</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X15" t="n">
         <v>12</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y15" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z15" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA15" t="n">
         <v>44</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB15" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC15" t="n">
         <v>7.2</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD15" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE15" t="n">
         <v>32</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF15" t="n">
         <v>17.5</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG15" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH15" t="n">
         <v>18</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI15" t="n">
         <v>48</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ15" t="n">
         <v>44</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK15" t="n">
         <v>34</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL15" t="n">
         <v>48</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM15" t="n">
         <v>110</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN15" t="n">
         <v>32</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO15" t="n">
         <v>32</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G2" t="n">
         <v>2.06</v>
       </c>
       <c r="H2" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
@@ -691,7 +691,7 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -700,22 +700,22 @@
         <v>1.82</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="R2" t="n">
         <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V2" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="W2" t="n">
         <v>1.94</v>
@@ -724,7 +724,7 @@
         <v>970</v>
       </c>
       <c r="Y2" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="Z2" t="n">
         <v>42</v>
@@ -745,7 +745,7 @@
         <v>80</v>
       </c>
       <c r="AF2" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AG2" t="n">
         <v>970</v>
@@ -772,7 +772,7 @@
         <v>970</v>
       </c>
       <c r="AO2" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -829,7 +829,7 @@
         <v>3.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P3" t="n">
         <v>1.92</v>
@@ -859,7 +859,7 @@
         <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
         <v>980</v>
@@ -940,7 +940,7 @@
         <v>2.34</v>
       </c>
       <c r="G4" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="H4" t="n">
         <v>3.2</v>
@@ -949,13 +949,13 @@
         <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="K4" t="n">
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -970,7 +970,7 @@
         <v>1.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
         <v>1.24</v>
@@ -985,10 +985,10 @@
         <v>1.9</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W4" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="X4" t="n">
         <v>13</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="G5" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="H5" t="n">
         <v>21</v>
       </c>
       <c r="I5" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="J5" t="n">
         <v>7.2</v>
       </c>
       <c r="K5" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L5" t="n">
         <v>1.26</v>
@@ -1150,19 +1150,19 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
         <v>980</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1210,7 +1210,7 @@
         <v>1.76</v>
       </c>
       <c r="G6" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="H6" t="n">
         <v>4.4</v>
@@ -1384,10 +1384,10 @@
         <v>5.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="U7" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
         <v>1.27</v>
@@ -1480,10 +1480,10 @@
         <v>2.04</v>
       </c>
       <c r="G8" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
         <v>3.75</v>
@@ -1495,7 +1495,7 @@
         <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1540,16 +1540,16 @@
         <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE8" t="n">
         <v>42</v>
@@ -1564,25 +1564,25 @@
         <v>18.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ8" t="n">
         <v>32</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AN8" t="n">
         <v>12</v>
       </c>
       <c r="AO8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G9" t="n">
         <v>2.52</v>
@@ -1627,7 +1627,7 @@
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.18</v>
@@ -1660,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W9" t="n">
         <v>1.66</v>
@@ -1765,13 +1765,13 @@
         <v>4.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>1.13</v>
@@ -1780,16 +1780,16 @@
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R10" t="n">
         <v>1.82</v>
       </c>
       <c r="S10" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="U10" t="n">
         <v>2.92</v>
@@ -1798,7 +1798,7 @@
         <v>1.44</v>
       </c>
       <c r="W10" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="G11" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="H11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
         <v>4.3</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.21</v>
@@ -1912,37 +1912,37 @@
         <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R11" t="n">
         <v>1.77</v>
       </c>
       <c r="S11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T11" t="n">
         <v>1.48</v>
       </c>
       <c r="U11" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="V11" t="n">
         <v>1.31</v>
       </c>
       <c r="W11" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="n">
         <v>32</v>
       </c>
       <c r="Z11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA11" t="n">
         <v>90</v>
@@ -1951,10 +1951,10 @@
         <v>20</v>
       </c>
       <c r="AC11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
         <v>46</v>
@@ -1966,7 +1966,7 @@
         <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>44</v>
@@ -2035,7 +2035,7 @@
         <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2056,7 +2056,7 @@
         <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T12" t="n">
         <v>1.84</v>
@@ -2086,7 +2086,7 @@
         <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD12" t="n">
         <v>21</v>
@@ -2110,7 +2110,7 @@
         <v>980</v>
       </c>
       <c r="AK12" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
         <v>980</v>
@@ -2161,7 +2161,7 @@
         <v>2.74</v>
       </c>
       <c r="I13" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
@@ -2188,19 +2188,19 @@
         <v>2.38</v>
       </c>
       <c r="R13" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S13" t="n">
         <v>4.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U13" t="n">
         <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W13" t="n">
         <v>1.44</v>
@@ -2221,7 +2221,7 @@
         <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD13" t="n">
         <v>13.5</v>
@@ -2290,10 +2290,10 @@
         <v>1.26</v>
       </c>
       <c r="G14" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="I14" t="n">
         <v>16.5</v>
@@ -2320,7 +2320,7 @@
         <v>2.36</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R14" t="n">
         <v>1.53</v>
@@ -2329,16 +2329,16 @@
         <v>2.78</v>
       </c>
       <c r="T14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V14" t="n">
         <v>1.06</v>
       </c>
       <c r="W14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="X14" t="n">
         <v>22</v>
@@ -2353,7 +2353,7 @@
         <v>900</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC14" t="n">
         <v>14</v>
@@ -2377,7 +2377,7 @@
         <v>240</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK14" t="n">
         <v>14.5</v>
@@ -2428,13 +2428,13 @@
         <v>2.9</v>
       </c>
       <c r="H15" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I15" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
         <v>3.4</v>
@@ -2470,13 +2470,13 @@
         <v>2.08</v>
       </c>
       <c r="V15" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W15" t="n">
         <v>1.52</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" t="n">
         <v>10.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:40:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al-Arabi Al-Saudi</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.86</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>2.06</v>
+        <v>6.2</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="I2" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>2.64</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>2.78</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U2" t="n">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="V2" t="n">
-        <v>1.25</v>
+        <v>1.84</v>
       </c>
       <c r="W2" t="n">
-        <v>1.94</v>
+        <v>1.19</v>
       </c>
       <c r="X2" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>42</v>
+        <v>13.5</v>
       </c>
       <c r="AA2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN2" t="n">
         <v>130</v>
       </c>
-      <c r="AB2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>970</v>
-      </c>
       <c r="AO2" t="n">
-        <v>90</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:10:00</t>
+          <t>09:40:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G3" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="H3" t="n">
         <v>4.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.31</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.34</v>
-      </c>
       <c r="S3" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="T3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="V3" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W3" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AA3" t="n">
         <v>130</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AJ3" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM3" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO3" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,123 +923,123 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>09:50:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Digenis Ypsona</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia FC</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.34</v>
+        <v>1.24</v>
       </c>
       <c r="G4" t="n">
-        <v>2.78</v>
+        <v>1.38</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>15.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.84</v>
+        <v>4.7</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5</v>
+        <v>11.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.92</v>
+        <v>3.45</v>
       </c>
       <c r="O4" t="n">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="P4" t="n">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>1.38</v>
       </c>
       <c r="R4" t="n">
-        <v>1.24</v>
+        <v>1.68</v>
       </c>
       <c r="S4" t="n">
-        <v>3.85</v>
+        <v>1.96</v>
       </c>
       <c r="T4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.89</v>
       </c>
-      <c r="U4" t="n">
-        <v>1.9</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.34</v>
+        <v>1.07</v>
       </c>
       <c r="W4" t="n">
-        <v>1.59</v>
+        <v>3.65</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="Y4" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG4" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,78 +1058,78 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Puskas Akademia</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>1.23</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>21</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>7.2</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>4.4</v>
+        <v>1.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.18</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="R5" t="n">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>2.7</v>
+        <v>1.22</v>
       </c>
       <c r="T5" t="n">
-        <v>2.84</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>5.4</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,25 +1138,25 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1165,16 +1165,16 @@
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:10:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="G6" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I6" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="O6" t="n">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>2.26</v>
+        <v>1.91</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="R6" t="n">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>2.56</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="V6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W6" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB6" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
         <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:35:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.12</v>
+        <v>1.64</v>
       </c>
       <c r="G7" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="J7" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
         <v>3.1</v>
       </c>
-      <c r="K7" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.78</v>
-      </c>
       <c r="O7" t="n">
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.64</v>
+        <v>1.8</v>
       </c>
       <c r="R7" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="S7" t="n">
-        <v>5.4</v>
+        <v>3.05</v>
       </c>
       <c r="T7" t="n">
-        <v>2.22</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="V7" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="W7" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="X7" t="n">
-        <v>8.4</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AA7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.2</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AE7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>24</v>
       </c>
-      <c r="AI7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>27</v>
-      </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>25</v>
+        <v>15.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.04</v>
+        <v>1.16</v>
       </c>
       <c r="G8" t="n">
-        <v>2.28</v>
+        <v>1.21</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>21</v>
       </c>
       <c r="I8" t="n">
-        <v>3.75</v>
+        <v>38</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>6.8</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>9.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="S8" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="T8" t="n">
-        <v>1.56</v>
+        <v>2.84</v>
       </c>
       <c r="U8" t="n">
-        <v>2.44</v>
+        <v>1.44</v>
       </c>
       <c r="V8" t="n">
-        <v>1.37</v>
+        <v>1.02</v>
       </c>
       <c r="W8" t="n">
-        <v>1.79</v>
+        <v>5.7</v>
       </c>
       <c r="X8" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AD8" t="n">
-        <v>18.5</v>
+        <v>130</v>
       </c>
       <c r="AE8" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>18.5</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AM8" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>4.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.26</v>
+        <v>1.76</v>
       </c>
       <c r="G9" t="n">
-        <v>2.52</v>
+        <v>1.84</v>
       </c>
       <c r="H9" t="n">
-        <v>2.72</v>
+        <v>4.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.05</v>
+        <v>5.1</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>3.05</v>
+        <v>2.28</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.38</v>
+        <v>1.64</v>
       </c>
       <c r="R9" t="n">
-        <v>1.86</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>1.95</v>
+        <v>2.56</v>
       </c>
       <c r="T9" t="n">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>2.28</v>
       </c>
       <c r="V9" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>1.66</v>
+        <v>2.18</v>
       </c>
       <c r="X9" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Y9" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AA9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI9" t="n">
         <v>55</v>
       </c>
-      <c r="AB9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>980</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AM9" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO9" t="n">
-        <v>14.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,99 +1733,99 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Digenis Ypsona</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Olympiakos Nicosia FC</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="G10" t="n">
-        <v>2.26</v>
+        <v>2.84</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1</v>
+        <v>2.84</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.19</v>
+        <v>1.48</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>2.92</v>
       </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.42</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.4</v>
+        <v>2.08</v>
       </c>
       <c r="R10" t="n">
-        <v>1.82</v>
+        <v>1.24</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>3.85</v>
       </c>
       <c r="T10" t="n">
-        <v>1.48</v>
+        <v>1.89</v>
       </c>
       <c r="U10" t="n">
-        <v>2.92</v>
+        <v>1.9</v>
       </c>
       <c r="V10" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="W10" t="n">
-        <v>1.79</v>
+        <v>1.59</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
         <v>1000</v>
@@ -1834,22 +1834,22 @@
         <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="G11" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="J11" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="L11" t="n">
-        <v>1.21</v>
+        <v>1.58</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>6.6</v>
+        <v>2.78</v>
       </c>
       <c r="O11" t="n">
-        <v>1.14</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
-        <v>2.88</v>
+        <v>1.58</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.43</v>
+        <v>2.64</v>
       </c>
       <c r="R11" t="n">
-        <v>1.77</v>
+        <v>1.2</v>
       </c>
       <c r="S11" t="n">
-        <v>2.08</v>
+        <v>5.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.48</v>
+        <v>2.22</v>
       </c>
       <c r="U11" t="n">
-        <v>2.74</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="X11" t="n">
-        <v>40</v>
+        <v>8.4</v>
       </c>
       <c r="Y11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z11" t="n">
         <v>32</v>
       </c>
-      <c r="Z11" t="n">
-        <v>44</v>
-      </c>
       <c r="AA11" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AB11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD11" t="n">
         <v>20</v>
       </c>
-      <c r="AC11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>21</v>
-      </c>
       <c r="AE11" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AJ11" t="n">
         <v>27</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
-        <v>8.199999999999999</v>
+        <v>25</v>
       </c>
       <c r="AO11" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G12" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>3.15</v>
+        <v>4.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>1.74</v>
+        <v>2.34</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.06</v>
+        <v>1.6</v>
       </c>
       <c r="R12" t="n">
-        <v>1.28</v>
+        <v>1.55</v>
       </c>
       <c r="S12" t="n">
-        <v>3.75</v>
+        <v>2.48</v>
       </c>
       <c r="T12" t="n">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="U12" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="V12" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="W12" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="Z12" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AF12" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="AJ12" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK12" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P13" t="n">
         <v>3.1</v>
       </c>
-      <c r="G13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="Q13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U13" t="n">
         <v>3</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.92</v>
-      </c>
       <c r="V13" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="W13" t="n">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.2</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AG13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO13" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.26</v>
+        <v>2.12</v>
       </c>
       <c r="G14" t="n">
-        <v>1.27</v>
+        <v>2.26</v>
       </c>
       <c r="H14" t="n">
-        <v>15</v>
+        <v>2.98</v>
       </c>
       <c r="I14" t="n">
-        <v>16.5</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="K14" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N14" t="n">
         <v>7</v>
       </c>
-      <c r="L14" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4.9</v>
-      </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="P14" t="n">
-        <v>2.36</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.69</v>
+        <v>1.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.82</v>
       </c>
       <c r="S14" t="n">
-        <v>2.78</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>2.4</v>
+        <v>1.48</v>
       </c>
       <c r="U14" t="n">
-        <v>1.67</v>
+        <v>2.92</v>
       </c>
       <c r="V14" t="n">
-        <v>1.06</v>
+        <v>1.44</v>
       </c>
       <c r="W14" t="n">
-        <v>4.7</v>
+        <v>1.79</v>
       </c>
       <c r="X14" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="Z14" t="n">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>900</v>
+        <v>60</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AD14" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>320</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>7.2</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>240</v>
+        <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.7</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,125 +2408,665 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.86</v>
+        <v>1.91</v>
       </c>
       <c r="G15" t="n">
-        <v>2.9</v>
+        <v>1.96</v>
       </c>
       <c r="H15" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>2.84</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>3.45</v>
+        <v>6.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>1.82</v>
+        <v>2.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.16</v>
+        <v>1.43</v>
       </c>
       <c r="R15" t="n">
-        <v>1.3</v>
+        <v>1.77</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>2.06</v>
       </c>
       <c r="T15" t="n">
-        <v>1.87</v>
+        <v>1.48</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08</v>
+        <v>2.74</v>
       </c>
       <c r="V15" t="n">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="W15" t="n">
-        <v>1.52</v>
+        <v>2.04</v>
       </c>
       <c r="X15" t="n">
-        <v>12.5</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.5</v>
+        <v>32</v>
       </c>
       <c r="Z15" t="n">
-        <v>17.5</v>
+        <v>44</v>
       </c>
       <c r="AA15" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AB15" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.2</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AF15" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH15" t="n">
         <v>18</v>
       </c>
       <c r="AI15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="X16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA17" t="n">
         <v>48</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AB17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK17" t="n">
         <v>44</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AL17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>US Cremonese</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>16</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="X18" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>320</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>240</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK19" t="n">
         <v>34</v>
       </c>
-      <c r="AL15" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM15" t="n">
+      <c r="AL19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM19" t="n">
         <v>110</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN19" t="n">
         <v>32</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO19" t="n">
         <v>32</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -667,55 +667,55 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="G2" t="n">
         <v>6.2</v>
       </c>
       <c r="H2" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="J2" t="n">
-        <v>2.64</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>2.78</v>
+        <v>3.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="Q2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.95</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.88</v>
-      </c>
       <c r="U2" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="W2" t="n">
         <v>1.19</v>
@@ -727,10 +727,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB2" t="n">
         <v>17.5</v>
@@ -742,7 +742,7 @@
         <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF2" t="n">
         <v>44</v>
@@ -754,7 +754,7 @@
         <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ2" t="n">
         <v>160</v>
@@ -772,7 +772,7 @@
         <v>130</v>
       </c>
       <c r="AO2" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -823,7 +823,7 @@
         <v>1.35</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
         <v>3.4</v>
@@ -832,10 +832,10 @@
         <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="R3" t="n">
         <v>1.31</v>
@@ -853,7 +853,7 @@
         <v>1.25</v>
       </c>
       <c r="W3" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="X3" t="n">
         <v>16.5</v>
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G4" t="n">
         <v>1.38</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K4" t="n">
-        <v>11.5</v>
+        <v>110</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
         <v>3.45</v>
       </c>
       <c r="O4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P4" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R4" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="S4" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="T4" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="U4" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="X4" t="n">
         <v>42</v>
@@ -1003,25 +1003,25 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC4" t="n">
         <v>18</v>
       </c>
       <c r="AD4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1030,16 +1030,16 @@
         <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="G5" t="n">
         <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="I5" t="n">
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G6" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
         <v>4.3</v>
@@ -1222,37 +1222,37 @@
         <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="V6" t="n">
         <v>1.26</v>
@@ -1261,34 +1261,34 @@
         <v>2.06</v>
       </c>
       <c r="X6" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC6" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AC6" t="n">
-        <v>970</v>
-      </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
@@ -1297,10 +1297,10 @@
         <v>70</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AL6" t="n">
         <v>980</v>
@@ -1309,7 +1309,7 @@
         <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
         <v>70</v>
@@ -1342,94 +1342,94 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="G7" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="J7" t="n">
-        <v>2.74</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="R7" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S7" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U7" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="X7" t="n">
         <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
         <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
@@ -1444,10 +1444,10 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="G8" t="n">
         <v>1.21</v>
@@ -1492,7 +1492,7 @@
         <v>6.8</v>
       </c>
       <c r="K8" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
         <v>1.26</v>
@@ -1501,31 +1501,31 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
         <v>2.72</v>
       </c>
       <c r="T8" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="U8" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="V8" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="W8" t="n">
         <v>5.7</v>
@@ -1573,7 +1573,7 @@
         <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1615,10 +1615,10 @@
         <v>1.76</v>
       </c>
       <c r="G9" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
         <v>5.1</v>
@@ -1633,7 +1633,7 @@
         <v>1.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
         <v>4.8</v>
@@ -1642,13 +1642,13 @@
         <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S9" t="n">
         <v>2.56</v>
@@ -1657,13 +1657,13 @@
         <v>1.64</v>
       </c>
       <c r="U9" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V9" t="n">
         <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X9" t="n">
         <v>26</v>
@@ -1681,13 +1681,13 @@
         <v>14</v>
       </c>
       <c r="AC9" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
         <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF9" t="n">
         <v>14.5</v>
@@ -1702,10 +1702,10 @@
         <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AL9" t="n">
         <v>30</v>
@@ -1750,22 +1750,22 @@
         <v>2.34</v>
       </c>
       <c r="G10" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
         <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
         <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -1789,16 +1789,16 @@
         <v>3.85</v>
       </c>
       <c r="T10" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U10" t="n">
         <v>1.9</v>
       </c>
       <c r="V10" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="W10" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="H11" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I11" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L11" t="n">
         <v>1.58</v>
@@ -1909,13 +1909,13 @@
         <v>2.78</v>
       </c>
       <c r="O11" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P11" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="R11" t="n">
         <v>1.2</v>
@@ -1924,16 +1924,16 @@
         <v>5.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W11" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X11" t="n">
         <v>8.4</v>
@@ -1954,7 +1954,7 @@
         <v>7.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
         <v>80</v>
@@ -1984,7 +1984,7 @@
         <v>200</v>
       </c>
       <c r="AN11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
         <v>120</v>
@@ -2017,28 +2017,28 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G12" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I12" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
         <v>4.9</v>
@@ -2047,82 +2047,82 @@
         <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R12" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S12" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T12" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U12" t="n">
         <v>2.44</v>
       </c>
       <c r="V12" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="X12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA12" t="n">
         <v>70</v>
       </c>
       <c r="AB12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF12" t="n">
         <v>16</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AG12" t="n">
         <v>11</v>
       </c>
-      <c r="AD12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12</v>
-      </c>
       <c r="AH12" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL12" t="n">
         <v>32</v>
       </c>
-      <c r="AK12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>36</v>
-      </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="G13" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="I13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -2176,7 +2176,7 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.13</v>
@@ -2185,10 +2185,10 @@
         <v>3.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R13" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S13" t="n">
         <v>1.95</v>
@@ -2197,13 +2197,13 @@
         <v>1.42</v>
       </c>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="V13" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W13" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
@@ -2245,7 +2245,7 @@
         <v>980</v>
       </c>
       <c r="AK13" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
         <v>980</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G14" t="n">
         <v>2.26</v>
       </c>
       <c r="H14" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
         <v>3.3</v>
@@ -2302,22 +2302,22 @@
         <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.13</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q14" t="n">
         <v>1.4</v>
@@ -2329,7 +2329,7 @@
         <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U14" t="n">
         <v>2.92</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="G15" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="H15" t="n">
         <v>3.8</v>
@@ -2437,10 +2437,10 @@
         <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="M15" t="n">
         <v>1.02</v>
@@ -2473,7 +2473,7 @@
         <v>1.32</v>
       </c>
       <c r="W15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X15" t="n">
         <v>38</v>
@@ -2497,19 +2497,19 @@
         <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
         <v>20</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH15" t="n">
         <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ15" t="n">
         <v>27</v>
@@ -2566,7 +2566,7 @@
         <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J16" t="n">
         <v>3.15</v>
@@ -2581,28 +2581,28 @@
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.38</v>
       </c>
       <c r="P16" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R16" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S16" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T16" t="n">
         <v>1.84</v>
       </c>
       <c r="U16" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>1.29</v>
@@ -2611,10 +2611,10 @@
         <v>1.81</v>
       </c>
       <c r="X16" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
         <v>980</v>
@@ -2629,28 +2629,28 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI16" t="n">
         <v>70</v>
       </c>
-      <c r="AF16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>80</v>
-      </c>
       <c r="AJ16" t="n">
         <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AL16" t="n">
         <v>980</v>
@@ -2692,82 +2692,82 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G17" t="n">
         <v>3.25</v>
       </c>
       <c r="H17" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="I17" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M17" t="n">
         <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P17" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R17" t="n">
         <v>1.24</v>
       </c>
       <c r="S17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U17" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V17" t="n">
         <v>1.54</v>
       </c>
       <c r="W17" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="Z17" t="n">
         <v>18</v>
       </c>
       <c r="AA17" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB17" t="n">
         <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="n">
         <v>21</v>
@@ -2776,10 +2776,10 @@
         <v>14.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ17" t="n">
         <v>60</v>
@@ -2791,13 +2791,13 @@
         <v>65</v>
       </c>
       <c r="AM17" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO17" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G18" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I18" t="n">
         <v>15</v>
-      </c>
-      <c r="I18" t="n">
-        <v>16</v>
       </c>
       <c r="J18" t="n">
         <v>6.8</v>
@@ -2860,7 +2860,7 @@
         <v>2.36</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R18" t="n">
         <v>1.53</v>
@@ -2875,13 +2875,13 @@
         <v>1.67</v>
       </c>
       <c r="V18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W18" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="X18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y18" t="n">
         <v>44</v>
@@ -2890,10 +2890,10 @@
         <v>160</v>
       </c>
       <c r="AA18" t="n">
-        <v>900</v>
+        <v>740</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC18" t="n">
         <v>15</v>
@@ -2902,7 +2902,7 @@
         <v>60</v>
       </c>
       <c r="AE18" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="AF18" t="n">
         <v>7.2</v>
@@ -2914,10 +2914,10 @@
         <v>40</v>
       </c>
       <c r="AI18" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AK18" t="n">
         <v>14.5</v>
@@ -2926,13 +2926,13 @@
         <v>46</v>
       </c>
       <c r="AM18" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN18" t="n">
         <v>4.7</v>
       </c>
       <c r="AO18" t="n">
-        <v>450</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19">
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G19" t="n">
         <v>2.88</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.92</v>
       </c>
       <c r="H19" t="n">
         <v>2.8</v>
@@ -2977,7 +2977,7 @@
         <v>3.3</v>
       </c>
       <c r="K19" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L19" t="n">
         <v>1.47</v>
@@ -2986,10 +2986,10 @@
         <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
         <v>1.8</v>
@@ -3013,7 +3013,7 @@
         <v>1.54</v>
       </c>
       <c r="W19" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X19" t="n">
         <v>11.5</v>
@@ -3037,7 +3037,7 @@
         <v>12.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF19" t="n">
         <v>17.5</v>
@@ -3046,7 +3046,7 @@
         <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI19" t="n">
         <v>48</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -670,34 +670,34 @@
         <v>4.8</v>
       </c>
       <c r="G2" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="H2" t="n">
         <v>1.78</v>
       </c>
       <c r="I2" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>3.95</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q2" t="n">
         <v>2.04</v>
@@ -706,19 +706,19 @@
         <v>1.29</v>
       </c>
       <c r="S2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T2" t="n">
         <v>1.95</v>
       </c>
       <c r="U2" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W2" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X2" t="n">
         <v>14.5</v>
@@ -727,10 +727,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>17.5</v>
@@ -739,7 +739,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>25</v>
@@ -748,7 +748,7 @@
         <v>44</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AH2" t="n">
         <v>26</v>
@@ -820,10 +820,10 @@
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>3.4</v>
@@ -832,16 +832,16 @@
         <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
         <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="T3" t="n">
         <v>1.83</v>
@@ -853,7 +853,7 @@
         <v>1.25</v>
       </c>
       <c r="W3" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="X3" t="n">
         <v>16.5</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="G4" t="n">
         <v>1.38</v>
@@ -964,7 +964,7 @@
         <v>3.45</v>
       </c>
       <c r="O4" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="P4" t="n">
         <v>2.88</v>
@@ -976,7 +976,7 @@
         <v>1.76</v>
       </c>
       <c r="S4" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
         <v>1.74</v>
@@ -1207,31 +1207,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
         <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1243,19 +1243,19 @@
         <v>1.87</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S6" t="n">
         <v>3.25</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
         <v>2.08</v>
       </c>
       <c r="V6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
         <v>2.06</v>
@@ -1264,10 +1264,10 @@
         <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA6" t="n">
         <v>110</v>
@@ -1279,25 +1279,25 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
         <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
         <v>24</v>
@@ -1312,7 +1312,7 @@
         <v>15</v>
       </c>
       <c r="AO6" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1354,10 +1354,10 @@
         <v>4.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1390,7 +1390,7 @@
         <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W7" t="n">
         <v>1.96</v>
@@ -1477,64 +1477,64 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="G8" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="H8" t="n">
         <v>21</v>
       </c>
       <c r="I8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J8" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>1.26</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="R8" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S8" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="T8" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="U8" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="V8" t="n">
         <v>1.03</v>
       </c>
       <c r="W8" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G9" t="n">
         <v>1.83</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I9" t="n">
         <v>5.1</v>
@@ -1642,25 +1642,25 @@
         <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R9" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T9" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U9" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="V9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W9" t="n">
         <v>2.2</v>
@@ -1690,7 +1690,7 @@
         <v>55</v>
       </c>
       <c r="AF9" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG9" t="n">
         <v>11.5</v>
@@ -1750,16 +1750,16 @@
         <v>2.34</v>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K10" t="n">
         <v>3.5</v>
@@ -1795,10 +1795,10 @@
         <v>1.9</v>
       </c>
       <c r="V10" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W10" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G11" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H11" t="n">
         <v>4.6</v>
@@ -1906,16 +1906,16 @@
         <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="O11" t="n">
         <v>1.54</v>
       </c>
       <c r="P11" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="R11" t="n">
         <v>1.2</v>
@@ -1924,19 +1924,19 @@
         <v>5.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U11" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V11" t="n">
         <v>1.27</v>
       </c>
       <c r="W11" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X11" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Y11" t="n">
         <v>12.5</v>
@@ -1951,10 +1951,10 @@
         <v>7</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE11" t="n">
         <v>80</v>
@@ -1963,7 +1963,7 @@
         <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>24</v>
@@ -1981,7 +1981,7 @@
         <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN11" t="n">
         <v>26</v>
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="G12" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
@@ -2050,7 +2050,7 @@
         <v>2.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R12" t="n">
         <v>1.54</v>
@@ -2059,49 +2059,49 @@
         <v>2.52</v>
       </c>
       <c r="T12" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U12" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V12" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W12" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="X12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z12" t="n">
         <v>980</v>
       </c>
       <c r="AA12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
         <v>13.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI12" t="n">
         <v>980</v>
@@ -2113,16 +2113,16 @@
         <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AM12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN12" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="H13" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
@@ -2179,7 +2179,7 @@
         <v>7.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P13" t="n">
         <v>3.1</v>
@@ -2191,19 +2191,19 @@
         <v>1.87</v>
       </c>
       <c r="S13" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="T13" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="U13" t="n">
         <v>3.05</v>
       </c>
       <c r="V13" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="W13" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
@@ -2221,7 +2221,7 @@
         <v>980</v>
       </c>
       <c r="AC13" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2233,10 +2233,10 @@
         <v>980</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
         <v>980</v>
@@ -2245,7 +2245,7 @@
         <v>980</v>
       </c>
       <c r="AK13" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
         <v>980</v>
@@ -2254,10 +2254,10 @@
         <v>980</v>
       </c>
       <c r="AN13" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2293,7 +2293,7 @@
         <v>2.26</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I14" t="n">
         <v>3.3</v>
@@ -2311,28 +2311,28 @@
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
         <v>1.13</v>
       </c>
       <c r="P14" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="Q14" t="n">
         <v>1.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="S14" t="n">
         <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="U14" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="V14" t="n">
         <v>1.44</v>
@@ -2389,7 +2389,7 @@
         <v>55</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="G15" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H15" t="n">
         <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
@@ -2446,7 +2446,7 @@
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O15" t="n">
         <v>1.14</v>
@@ -2461,25 +2461,25 @@
         <v>1.77</v>
       </c>
       <c r="S15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T15" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U15" t="n">
         <v>2.74</v>
       </c>
       <c r="V15" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X15" t="n">
         <v>38</v>
       </c>
       <c r="Y15" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Z15" t="n">
         <v>44</v>
@@ -2494,7 +2494,7 @@
         <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AE15" t="n">
         <v>980</v>
@@ -2521,7 +2521,7 @@
         <v>29</v>
       </c>
       <c r="AM15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN15" t="n">
         <v>8.199999999999999</v>
@@ -2569,7 +2569,7 @@
         <v>4.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
         <v>3.7</v>
@@ -2602,10 +2602,10 @@
         <v>1.84</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W16" t="n">
         <v>1.81</v>
@@ -2698,13 +2698,13 @@
         <v>3.25</v>
       </c>
       <c r="H17" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="I17" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
         <v>3.2</v>
@@ -2713,58 +2713,58 @@
         <v>1.52</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="P17" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="R17" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S17" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="T17" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V17" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W17" t="n">
         <v>1.45</v>
       </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC17" t="n">
         <v>6.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>38</v>
@@ -2773,10 +2773,10 @@
         <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
         <v>65</v>
@@ -2797,7 +2797,7 @@
         <v>55</v>
       </c>
       <c r="AO17" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G18" t="n">
         <v>1.27</v>
       </c>
-      <c r="G18" t="n">
-        <v>1.28</v>
-      </c>
       <c r="H18" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="I18" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="J18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K18" t="n">
         <v>6.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>7</v>
       </c>
       <c r="L18" t="n">
         <v>1.32</v>
@@ -2857,31 +2857,31 @@
         <v>1.23</v>
       </c>
       <c r="P18" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q18" t="n">
         <v>1.7</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S18" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T18" t="n">
         <v>2.4</v>
       </c>
       <c r="U18" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W18" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="X18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y18" t="n">
         <v>44</v>
@@ -2890,19 +2890,19 @@
         <v>160</v>
       </c>
       <c r="AA18" t="n">
-        <v>740</v>
+        <v>800</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD18" t="n">
         <v>60</v>
       </c>
       <c r="AE18" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="AF18" t="n">
         <v>7.2</v>
@@ -2914,10 +2914,10 @@
         <v>40</v>
       </c>
       <c r="AI18" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK18" t="n">
         <v>14.5</v>
@@ -2926,13 +2926,13 @@
         <v>46</v>
       </c>
       <c r="AM18" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AO18" t="n">
-        <v>390</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19">
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="G19" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H19" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I19" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
         <v>3.4</v>
@@ -2986,16 +2986,16 @@
         <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P19" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R19" t="n">
         <v>1.3</v>
@@ -3007,7 +3007,7 @@
         <v>1.88</v>
       </c>
       <c r="U19" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V19" t="n">
         <v>1.54</v>
@@ -3049,7 +3049,7 @@
         <v>18.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ19" t="n">
         <v>46</v>
@@ -3064,7 +3064,7 @@
         <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO19" t="n">
         <v>32</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -670,7 +670,7 @@
         <v>4.8</v>
       </c>
       <c r="G2" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
         <v>1.78</v>
@@ -685,19 +685,19 @@
         <v>3.95</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q2" t="n">
         <v>2.04</v>
@@ -706,7 +706,7 @@
         <v>1.29</v>
       </c>
       <c r="S2" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
         <v>1.95</v>
@@ -721,16 +721,16 @@
         <v>1.2</v>
       </c>
       <c r="X2" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="AB2" t="n">
         <v>17.5</v>
@@ -739,37 +739,37 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>25</v>
       </c>
       <c r="AF2" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AI2" t="n">
-        <v>50</v>
+        <v>290</v>
       </c>
       <c r="AJ2" t="n">
         <v>160</v>
       </c>
       <c r="AK2" t="n">
-        <v>90</v>
+        <v>370</v>
       </c>
       <c r="AL2" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="AM2" t="n">
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="AN2" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AO2" t="n">
         <v>17</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G3" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H3" t="n">
         <v>4.3</v>
@@ -814,49 +814,49 @@
         <v>5.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P3" t="n">
         <v>1.82</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V3" t="n">
         <v>1.25</v>
       </c>
       <c r="W3" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y3" t="n">
         <v>18.5</v>
@@ -865,7 +865,7 @@
         <v>42</v>
       </c>
       <c r="AA3" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB3" t="n">
         <v>10.5</v>
@@ -883,7 +883,7 @@
         <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
         <v>24</v>
@@ -895,19 +895,19 @@
         <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL3" t="n">
         <v>48</v>
       </c>
       <c r="AM3" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN3" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>95</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4">
@@ -940,19 +940,19 @@
         <v>1.26</v>
       </c>
       <c r="G4" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="H4" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J4" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K4" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,40 +961,40 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.12</v>
       </c>
       <c r="P4" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="R4" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="T4" t="n">
         <v>1.74</v>
       </c>
       <c r="U4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>1.08</v>
       </c>
       <c r="W4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="X4" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,43 +1003,43 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="AC4" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD4" t="n">
+        <v>160</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH4" t="n">
         <v>48</v>
       </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>32</v>
-      </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AL4" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.4</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,28 +1072,28 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.06</v>
+        <v>1.65</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="H5" t="n">
-        <v>1.06</v>
+        <v>2.3</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="J5" t="n">
-        <v>1.05</v>
+        <v>3.65</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>32</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
         <v>1.25</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="W5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G6" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H6" t="n">
         <v>4.4</v>
@@ -1219,10 +1219,10 @@
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
         <v>1.38</v>
@@ -1249,16 +1249,16 @@
         <v>3.25</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
         <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X6" t="n">
         <v>19</v>
@@ -1297,7 +1297,7 @@
         <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
         <v>24</v>
@@ -1306,13 +1306,13 @@
         <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>390</v>
       </c>
       <c r="AN6" t="n">
         <v>15</v>
       </c>
       <c r="AO6" t="n">
-        <v>80</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7">
@@ -1354,7 +1354,7 @@
         <v>4.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
         <v>4.2</v>
@@ -1390,13 +1390,13 @@
         <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W7" t="n">
         <v>1.96</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
         <v>15</v>
@@ -1411,7 +1411,7 @@
         <v>11.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.4</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
         <v>19</v>
@@ -1426,7 +1426,7 @@
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AI7" t="n">
         <v>70</v>
@@ -1444,10 +1444,10 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>17.5</v>
+        <v>60</v>
       </c>
       <c r="AO7" t="n">
-        <v>80</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8">
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="G8" t="n">
         <v>1.2</v>
       </c>
       <c r="H8" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I8" t="n">
         <v>40</v>
@@ -1492,7 +1492,7 @@
         <v>7.4</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L8" t="n">
         <v>1.26</v>
@@ -1501,7 +1501,7 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.22</v>
@@ -1510,7 +1510,7 @@
         <v>2.26</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R8" t="n">
         <v>1.49</v>
@@ -1519,22 +1519,22 @@
         <v>2.68</v>
       </c>
       <c r="T8" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="U8" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="V8" t="n">
         <v>1.03</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1549,7 +1549,7 @@
         <v>980</v>
       </c>
       <c r="AD8" t="n">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1561,7 +1561,7 @@
         <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1573,13 +1573,13 @@
         <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G9" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I9" t="n">
         <v>5.1</v>
@@ -1645,31 +1645,31 @@
         <v>2.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
         <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T9" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="U9" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V9" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="X9" t="n">
         <v>26</v>
       </c>
       <c r="Y9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z9" t="n">
         <v>40</v>
@@ -1681,7 +1681,7 @@
         <v>14</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
         <v>21</v>
@@ -1696,7 +1696,7 @@
         <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI9" t="n">
         <v>55</v>
@@ -1750,7 +1750,7 @@
         <v>2.34</v>
       </c>
       <c r="G10" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
@@ -1759,10 +1759,10 @@
         <v>3.85</v>
       </c>
       <c r="J10" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L10" t="n">
         <v>1.42</v>
@@ -1774,7 +1774,7 @@
         <v>2.92</v>
       </c>
       <c r="O10" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
         <v>1.65</v>
@@ -1804,7 +1804,7 @@
         <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1816,7 +1816,7 @@
         <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.800000000000001</v>
+        <v>42</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1906,10 +1906,10 @@
         <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P11" t="n">
         <v>1.58</v>
@@ -1936,40 +1936,40 @@
         <v>1.86</v>
       </c>
       <c r="X11" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB11" t="n">
         <v>7</v>
       </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD11" t="n">
         <v>18.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
         <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
         <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="n">
         <v>27</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.29</v>
@@ -2050,7 +2050,7 @@
         <v>2.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R12" t="n">
         <v>1.54</v>
@@ -2068,7 +2068,7 @@
         <v>1.41</v>
       </c>
       <c r="W12" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X12" t="n">
         <v>28</v>
@@ -2083,7 +2083,7 @@
         <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC12" t="n">
         <v>10</v>
@@ -2098,7 +2098,7 @@
         <v>17</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
         <v>16.5</v>
@@ -2116,7 +2116,7 @@
         <v>980</v>
       </c>
       <c r="AM12" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AN12" t="n">
         <v>11.5</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G13" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
         <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
@@ -2179,7 +2179,7 @@
         <v>7.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P13" t="n">
         <v>3.1</v>
@@ -2188,25 +2188,25 @@
         <v>1.39</v>
       </c>
       <c r="R13" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S13" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="T13" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="U13" t="n">
         <v>3.05</v>
       </c>
       <c r="V13" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W13" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X13" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="Y13" t="n">
         <v>980</v>
@@ -2215,13 +2215,13 @@
         <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AB13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2233,10 +2233,10 @@
         <v>980</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>980</v>
@@ -2254,10 +2254,10 @@
         <v>980</v>
       </c>
       <c r="AN13" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="G14" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H14" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J14" t="n">
         <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.19</v>
@@ -2311,34 +2311,34 @@
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.13</v>
       </c>
       <c r="P14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R14" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T14" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="U14" t="n">
         <v>2.96</v>
       </c>
       <c r="V14" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W14" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="X14" t="n">
         <v>980</v>
@@ -2356,7 +2356,7 @@
         <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2386,7 +2386,7 @@
         <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AN14" t="n">
         <v>9.800000000000001</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="G15" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H15" t="n">
         <v>3.8</v>
@@ -2437,7 +2437,7 @@
         <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.23</v>
@@ -2461,10 +2461,10 @@
         <v>1.77</v>
       </c>
       <c r="S15" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T15" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U15" t="n">
         <v>2.74</v>
@@ -2482,7 +2482,7 @@
         <v>27</v>
       </c>
       <c r="Z15" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
         <v>90</v>
@@ -2503,7 +2503,7 @@
         <v>20</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
         <v>18</v>
@@ -2512,7 +2512,7 @@
         <v>980</v>
       </c>
       <c r="AJ15" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AK15" t="n">
         <v>21</v>
@@ -2521,13 +2521,13 @@
         <v>29</v>
       </c>
       <c r="AM15" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AN15" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AO15" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -2560,7 +2560,7 @@
         <v>2.02</v>
       </c>
       <c r="G16" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H16" t="n">
         <v>3.8</v>
@@ -2572,7 +2572,7 @@
         <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L16" t="n">
         <v>1.43</v>
@@ -2581,13 +2581,13 @@
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O16" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q16" t="n">
         <v>2.04</v>
@@ -2602,7 +2602,7 @@
         <v>1.84</v>
       </c>
       <c r="U16" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V16" t="n">
         <v>1.28</v>
@@ -2611,7 +2611,7 @@
         <v>1.81</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
         <v>1000</v>
@@ -2620,7 +2620,7 @@
         <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="AB16" t="n">
         <v>10.5</v>
@@ -2632,37 +2632,37 @@
         <v>20</v>
       </c>
       <c r="AE16" t="n">
-        <v>65</v>
+        <v>370</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI16" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK16" t="n">
         <v>30</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AM16" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AN16" t="n">
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>85</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
@@ -2695,37 +2695,37 @@
         <v>3.05</v>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I17" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="J17" t="n">
         <v>3.1</v>
       </c>
       <c r="K17" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L17" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M17" t="n">
         <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O17" t="n">
         <v>1.49</v>
       </c>
       <c r="P17" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="R17" t="n">
         <v>1.22</v>
@@ -2734,31 +2734,31 @@
         <v>4.9</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U17" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V17" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W17" t="n">
         <v>1.45</v>
       </c>
       <c r="X17" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC17" t="n">
         <v>6.8</v>
@@ -2770,13 +2770,13 @@
         <v>38</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
         <v>65</v>
@@ -2797,7 +2797,7 @@
         <v>55</v>
       </c>
       <c r="AO17" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
@@ -2836,16 +2836,16 @@
         <v>15</v>
       </c>
       <c r="I18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="J18" t="n">
         <v>6.6</v>
       </c>
       <c r="K18" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -2869,19 +2869,19 @@
         <v>2.8</v>
       </c>
       <c r="T18" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U18" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V18" t="n">
         <v>1.06</v>
       </c>
       <c r="W18" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="X18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y18" t="n">
         <v>44</v>
@@ -2890,10 +2890,10 @@
         <v>160</v>
       </c>
       <c r="AA18" t="n">
-        <v>800</v>
+        <v>840</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC18" t="n">
         <v>15.5</v>
@@ -2905,10 +2905,10 @@
         <v>310</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
         <v>40</v>
@@ -2920,7 +2920,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AK18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL18" t="n">
         <v>46</v>
@@ -2932,7 +2932,7 @@
         <v>4.8</v>
       </c>
       <c r="AO18" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19">
@@ -2965,10 +2965,10 @@
         <v>2.84</v>
       </c>
       <c r="G19" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H19" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I19" t="n">
         <v>2.82</v>
@@ -2986,7 +2986,7 @@
         <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O19" t="n">
         <v>1.39</v>
@@ -3007,7 +3007,7 @@
         <v>1.88</v>
       </c>
       <c r="U19" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V19" t="n">
         <v>1.54</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -670,85 +670,85 @@
         <v>4.8</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="I2" t="n">
         <v>1.94</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S2" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T2" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="U2" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
         <v>2.06</v>
       </c>
       <c r="W2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="n">
         <v>27</v>
       </c>
       <c r="AA2" t="n">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
         <v>25</v>
       </c>
       <c r="AF2" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AH2" t="n">
         <v>65</v>
@@ -757,7 +757,7 @@
         <v>290</v>
       </c>
       <c r="AJ2" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="AK2" t="n">
         <v>370</v>
@@ -766,10 +766,10 @@
         <v>380</v>
       </c>
       <c r="AM2" t="n">
-        <v>450</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="AO2" t="n">
         <v>17</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G3" t="n">
         <v>2.02</v>
       </c>
       <c r="H3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J3" t="n">
         <v>3.45</v>
@@ -820,25 +820,25 @@
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O3" t="n">
         <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S3" t="n">
         <v>3.6</v>
@@ -847,13 +847,13 @@
         <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W3" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="X3" t="n">
         <v>16</v>
@@ -862,10 +862,10 @@
         <v>18.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="AB3" t="n">
         <v>10.5</v>
@@ -877,31 +877,31 @@
         <v>23</v>
       </c>
       <c r="AE3" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AG3" t="n">
         <v>9</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AI3" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AK3" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AL3" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
         <v>18.5</v>
@@ -940,10 +940,10 @@
         <v>1.26</v>
       </c>
       <c r="G4" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H4" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="I4" t="n">
         <v>14</v>
@@ -961,37 +961,37 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>1.02</v>
       </c>
       <c r="O4" t="n">
         <v>1.12</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="R4" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S4" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V4" t="n">
         <v>1.08</v>
       </c>
       <c r="W4" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="X4" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
         <v>240</v>
@@ -1003,25 +1003,25 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1030,16 +1030,16 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>6.2</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1123,7 +1123,7 @@
         <v>1.25</v>
       </c>
       <c r="W5" t="n">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="G6" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="H6" t="n">
         <v>4.4</v>
@@ -1219,13 +1219,13 @@
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
         <v>4.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1255,10 +1255,10 @@
         <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W6" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X6" t="n">
         <v>19</v>
@@ -1270,7 +1270,7 @@
         <v>42</v>
       </c>
       <c r="AA6" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
         <v>11</v>
@@ -1303,10 +1303,10 @@
         <v>24</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AM6" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
         <v>15</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G7" t="n">
         <v>2.04</v>
@@ -1351,7 +1351,7 @@
         <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J7" t="n">
         <v>3.55</v>
@@ -1366,13 +1366,13 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
         <v>1.94</v>
@@ -1384,13 +1384,13 @@
         <v>3.25</v>
       </c>
       <c r="T7" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="U7" t="n">
         <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W7" t="n">
         <v>1.96</v>
@@ -1399,55 +1399,55 @@
         <v>90</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="Z7" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AE7" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AJ7" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AK7" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AL7" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO7" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8">
@@ -1489,10 +1489,10 @@
         <v>40</v>
       </c>
       <c r="J8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K8" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
         <v>1.26</v>
@@ -1516,13 +1516,13 @@
         <v>1.49</v>
       </c>
       <c r="S8" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="T8" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="U8" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="V8" t="n">
         <v>1.03</v>
@@ -1555,7 +1555,7 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1615,19 +1615,19 @@
         <v>1.77</v>
       </c>
       <c r="G9" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="H9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
         <v>5.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
         <v>1.25</v>
@@ -1663,7 +1663,7 @@
         <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="X9" t="n">
         <v>26</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G10" t="n">
         <v>2.66</v>
@@ -1756,7 +1756,7 @@
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J10" t="n">
         <v>2.94</v>
@@ -1804,7 +1804,7 @@
         <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,19 +1813,19 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG10" t="n">
         <v>1000</v>
@@ -1906,7 +1906,7 @@
         <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="O11" t="n">
         <v>1.55</v>
@@ -1921,7 +1921,7 @@
         <v>1.2</v>
       </c>
       <c r="S11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="T11" t="n">
         <v>2.18</v>
@@ -1951,7 +1951,7 @@
         <v>7</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
         <v>18.5</v>
@@ -2041,13 +2041,13 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q12" t="n">
         <v>1.61</v>
@@ -2077,10 +2077,10 @@
         <v>22</v>
       </c>
       <c r="Z12" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AA12" t="n">
-        <v>60</v>
+        <v>900</v>
       </c>
       <c r="AB12" t="n">
         <v>14.5</v>
@@ -2089,10 +2089,10 @@
         <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AF12" t="n">
         <v>17</v>
@@ -2104,19 +2104,19 @@
         <v>16.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AK12" t="n">
         <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AM12" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
         <v>11.5</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
         <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.19</v>
@@ -2182,7 +2182,7 @@
         <v>1.13</v>
       </c>
       <c r="P13" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q13" t="n">
         <v>1.39</v>
@@ -2191,22 +2191,22 @@
         <v>1.88</v>
       </c>
       <c r="S13" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="T13" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U13" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>1.42</v>
       </c>
       <c r="W13" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X13" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="Y13" t="n">
         <v>980</v>
@@ -2224,7 +2224,7 @@
         <v>16</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE13" t="n">
         <v>980</v>
@@ -2239,22 +2239,22 @@
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AL13" t="n">
         <v>980</v>
       </c>
       <c r="AM13" t="n">
-        <v>980</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AO13" t="n">
         <v>46</v>
@@ -2290,16 +2290,16 @@
         <v>2.1</v>
       </c>
       <c r="G14" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
         <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K14" t="n">
         <v>4.5</v>
@@ -2311,7 +2311,7 @@
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O14" t="n">
         <v>1.13</v>
@@ -2332,10 +2332,10 @@
         <v>1.47</v>
       </c>
       <c r="U14" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="V14" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W14" t="n">
         <v>1.83</v>
@@ -2350,7 +2350,7 @@
         <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AB14" t="n">
         <v>980</v>
@@ -2359,7 +2359,7 @@
         <v>13.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE14" t="n">
         <v>980</v>
@@ -2368,10 +2368,10 @@
         <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI14" t="n">
         <v>980</v>
@@ -2386,7 +2386,7 @@
         <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
         <v>9.800000000000001</v>
@@ -2425,19 +2425,19 @@
         <v>1.83</v>
       </c>
       <c r="G15" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I15" t="n">
         <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L15" t="n">
         <v>1.23</v>
@@ -2455,19 +2455,19 @@
         <v>2.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R15" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="S15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T15" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="U15" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="V15" t="n">
         <v>1.31</v>
@@ -2476,19 +2476,19 @@
         <v>2.08</v>
       </c>
       <c r="X15" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Y15" t="n">
         <v>27</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AA15" t="n">
         <v>90</v>
       </c>
       <c r="AB15" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AC15" t="n">
         <v>14</v>
@@ -2497,22 +2497,22 @@
         <v>18.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AF15" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AG15" t="n">
         <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AK15" t="n">
         <v>21</v>
@@ -2521,7 +2521,7 @@
         <v>29</v>
       </c>
       <c r="AM15" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
         <v>8.199999999999999</v>
@@ -2566,7 +2566,7 @@
         <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J16" t="n">
         <v>3.2</v>
@@ -2581,31 +2581,31 @@
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="O16" t="n">
         <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="S16" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="T16" t="n">
         <v>1.84</v>
       </c>
       <c r="U16" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W16" t="n">
         <v>1.81</v>
@@ -2614,10 +2614,10 @@
         <v>23</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="n">
         <v>900</v>
@@ -2641,7 +2641,7 @@
         <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AI16" t="n">
         <v>380</v>
@@ -2653,16 +2653,16 @@
         <v>30</v>
       </c>
       <c r="AL16" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="AM16" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17">
@@ -2719,7 +2719,7 @@
         <v>2.92</v>
       </c>
       <c r="O17" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P17" t="n">
         <v>1.6</v>
@@ -2746,13 +2746,13 @@
         <v>1.45</v>
       </c>
       <c r="X17" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="Y17" t="n">
         <v>8.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA17" t="n">
         <v>46</v>
@@ -2776,10 +2776,10 @@
         <v>17.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ17" t="n">
         <v>60</v>
@@ -2839,7 +2839,7 @@
         <v>16</v>
       </c>
       <c r="J18" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K18" t="n">
         <v>7</v>
@@ -2860,19 +2860,19 @@
         <v>2.34</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R18" t="n">
         <v>1.52</v>
       </c>
       <c r="S18" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T18" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U18" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V18" t="n">
         <v>1.06</v>
@@ -2890,7 +2890,7 @@
         <v>160</v>
       </c>
       <c r="AA18" t="n">
-        <v>840</v>
+        <v>810</v>
       </c>
       <c r="AB18" t="n">
         <v>8.199999999999999</v>
@@ -2917,13 +2917,13 @@
         <v>240</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AK18" t="n">
         <v>14</v>
       </c>
       <c r="AL18" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM18" t="n">
         <v>260</v>
@@ -2932,7 +2932,7 @@
         <v>4.8</v>
       </c>
       <c r="AO18" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2971,7 +2971,7 @@
         <v>2.8</v>
       </c>
       <c r="I19" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="J19" t="n">
         <v>3.35</v>
@@ -2980,7 +2980,7 @@
         <v>3.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M19" t="n">
         <v>1.09</v>
@@ -2992,16 +2992,16 @@
         <v>1.39</v>
       </c>
       <c r="P19" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
         <v>1.88</v>
@@ -3031,7 +3031,7 @@
         <v>10.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD19" t="n">
         <v>12.5</v>
@@ -3049,7 +3049,7 @@
         <v>18.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ19" t="n">
         <v>46</v>
@@ -3064,7 +3064,7 @@
         <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO19" t="n">
         <v>32</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G2" t="n">
         <v>5.8</v>
@@ -676,10 +676,10 @@
         <v>1.77</v>
       </c>
       <c r="I2" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
@@ -691,34 +691,34 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q2" t="n">
         <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S2" t="n">
         <v>3.85</v>
       </c>
       <c r="T2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X2" t="n">
         <v>23</v>
@@ -754,7 +754,7 @@
         <v>65</v>
       </c>
       <c r="AI2" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="n">
         <v>900</v>
@@ -820,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -829,22 +829,22 @@
         <v>3.45</v>
       </c>
       <c r="O3" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S3" t="n">
         <v>3.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U3" t="n">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>900</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
         <v>23</v>
@@ -892,10 +892,10 @@
         <v>500</v>
       </c>
       <c r="AJ3" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AL3" t="n">
         <v>980</v>
@@ -907,7 +907,7 @@
         <v>18.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H4" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>14</v>
       </c>
       <c r="J4" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K4" t="n">
         <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M4" t="n">
         <v>1.02</v>
@@ -967,7 +967,7 @@
         <v>1.12</v>
       </c>
       <c r="P4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q4" t="n">
         <v>1.45</v>
@@ -982,10 +982,10 @@
         <v>1.67</v>
       </c>
       <c r="U4" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W4" t="n">
         <v>3.65</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="G5" t="n">
-        <v>44</v>
+        <v>3.05</v>
       </c>
       <c r="H5" t="n">
         <v>2.3</v>
@@ -1087,7 +1087,7 @@
         <v>3.65</v>
       </c>
       <c r="K5" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="Q5" t="n">
         <v>1.22</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S5" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1123,7 +1123,7 @@
         <v>1.25</v>
       </c>
       <c r="W5" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1156,7 +1156,7 @@
         <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="G6" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
         <v>4.3</v>
@@ -1249,16 +1249,16 @@
         <v>3.25</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
         <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="X6" t="n">
         <v>19</v>
@@ -1282,22 +1282,22 @@
         <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG6" t="n">
         <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AI6" t="n">
         <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK6" t="n">
         <v>24</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G7" t="n">
         <v>2.04</v>
@@ -1357,7 +1357,7 @@
         <v>3.55</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1372,7 +1372,7 @@
         <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Q7" t="n">
         <v>1.94</v>
@@ -1420,10 +1420,10 @@
         <v>500</v>
       </c>
       <c r="AF7" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AH7" t="n">
         <v>970</v>
@@ -1522,13 +1522,13 @@
         <v>2.66</v>
       </c>
       <c r="U8" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="V8" t="n">
         <v>1.03</v>
       </c>
       <c r="W8" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
@@ -1618,13 +1618,13 @@
         <v>1.84</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I9" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
         <v>4.3</v>
@@ -1636,7 +1636,7 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.21</v>
@@ -1645,19 +1645,19 @@
         <v>2.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
         <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T9" t="n">
         <v>1.69</v>
       </c>
       <c r="U9" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V9" t="n">
         <v>1.25</v>
@@ -1666,7 +1666,7 @@
         <v>2.18</v>
       </c>
       <c r="X9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="n">
         <v>22</v>
@@ -1717,7 +1717,7 @@
         <v>10</v>
       </c>
       <c r="AO9" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -1786,7 +1786,7 @@
         <v>1.24</v>
       </c>
       <c r="S10" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T10" t="n">
         <v>1.9</v>
@@ -1912,10 +1912,10 @@
         <v>1.55</v>
       </c>
       <c r="P11" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="R11" t="n">
         <v>1.2</v>
@@ -1927,7 +1927,7 @@
         <v>2.18</v>
       </c>
       <c r="U11" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
         <v>1.27</v>
@@ -1942,7 +1942,7 @@
         <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA11" t="n">
         <v>110</v>
@@ -1963,7 +1963,7 @@
         <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>24</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G12" t="n">
         <v>2.26</v>
@@ -2026,10 +2026,10 @@
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>4.3</v>
@@ -2041,13 +2041,13 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q12" t="n">
         <v>1.61</v>
@@ -2062,7 +2062,7 @@
         <v>1.57</v>
       </c>
       <c r="U12" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="V12" t="n">
         <v>1.41</v>
@@ -2071,13 +2071,13 @@
         <v>1.79</v>
       </c>
       <c r="X12" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Y12" t="n">
         <v>22</v>
       </c>
       <c r="Z12" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AA12" t="n">
         <v>900</v>
@@ -2086,43 +2086,43 @@
         <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
         <v>17</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK12" t="n">
         <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>60</v>
       </c>
       <c r="AN12" t="n">
         <v>11.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -2155,16 +2155,16 @@
         <v>2.18</v>
       </c>
       <c r="G13" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
         <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
         <v>4.2</v>
@@ -2179,7 +2179,7 @@
         <v>7.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P13" t="n">
         <v>3.05</v>
@@ -2191,19 +2191,19 @@
         <v>1.88</v>
       </c>
       <c r="S13" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="T13" t="n">
         <v>1.44</v>
       </c>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="V13" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W13" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X13" t="n">
         <v>100</v>
@@ -2218,7 +2218,7 @@
         <v>300</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AC13" t="n">
         <v>16</v>
@@ -2239,7 +2239,7 @@
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
@@ -2254,7 +2254,7 @@
         <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO13" t="n">
         <v>46</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G14" t="n">
         <v>2.2</v>
@@ -2296,7 +2296,7 @@
         <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
         <v>4.2</v>
@@ -2311,7 +2311,7 @@
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.13</v>
@@ -2335,7 +2335,7 @@
         <v>2.92</v>
       </c>
       <c r="V14" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W14" t="n">
         <v>1.83</v>
@@ -2392,7 +2392,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="15">
@@ -2452,7 +2452,7 @@
         <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q15" t="n">
         <v>1.44</v>
@@ -2470,7 +2470,7 @@
         <v>2.72</v>
       </c>
       <c r="V15" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W15" t="n">
         <v>2.08</v>
@@ -2701,7 +2701,7 @@
         <v>2.72</v>
       </c>
       <c r="I17" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J17" t="n">
         <v>3.1</v>
@@ -2716,7 +2716,7 @@
         <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="O17" t="n">
         <v>1.5</v>
@@ -2725,13 +2725,13 @@
         <v>1.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="R17" t="n">
         <v>1.22</v>
       </c>
       <c r="S17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T17" t="n">
         <v>2.04</v>
@@ -2746,10 +2746,10 @@
         <v>1.45</v>
       </c>
       <c r="X17" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z17" t="n">
         <v>16</v>
@@ -2770,28 +2770,28 @@
         <v>38</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH17" t="n">
         <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ17" t="n">
         <v>60</v>
       </c>
       <c r="AK17" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL17" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM17" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="n">
         <v>55</v>
@@ -2863,13 +2863,13 @@
         <v>1.71</v>
       </c>
       <c r="R18" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S18" t="n">
         <v>2.82</v>
       </c>
       <c r="T18" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U18" t="n">
         <v>1.7</v>
@@ -2890,19 +2890,19 @@
         <v>160</v>
       </c>
       <c r="AA18" t="n">
-        <v>810</v>
+        <v>890</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD18" t="n">
         <v>60</v>
       </c>
       <c r="AE18" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="AF18" t="n">
         <v>7</v>
@@ -2917,22 +2917,22 @@
         <v>240</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK18" t="n">
         <v>14</v>
       </c>
       <c r="AL18" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM18" t="n">
         <v>260</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="G19" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H19" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I19" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J19" t="n">
         <v>3.35</v>
@@ -2992,10 +2992,10 @@
         <v>1.39</v>
       </c>
       <c r="P19" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R19" t="n">
         <v>1.31</v>
@@ -3010,10 +3010,10 @@
         <v>2.08</v>
       </c>
       <c r="V19" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W19" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X19" t="n">
         <v>11.5</v>
@@ -3037,7 +3037,7 @@
         <v>12.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF19" t="n">
         <v>17.5</v>
@@ -3064,7 +3064,7 @@
         <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO19" t="n">
         <v>32</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -667,94 +667,94 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="G2" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="I2" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="R2" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S2" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="T2" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V2" t="n">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="W2" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
-        <v>14</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AA2" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AC2" t="n">
         <v>14</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI2" t="n">
         <v>980</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>120</v>
       </c>
       <c r="AJ2" t="n">
         <v>900</v>
@@ -772,7 +772,7 @@
         <v>600</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -805,70 +805,70 @@
         <v>1.85</v>
       </c>
       <c r="G3" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
         <v>5.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="O3" t="n">
         <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="X3" t="n">
         <v>16</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AA3" t="n">
         <v>900</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC3" t="n">
         <v>9.6</v>
@@ -883,7 +883,7 @@
         <v>25</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
         <v>60</v>
@@ -892,10 +892,10 @@
         <v>500</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AK3" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AL3" t="n">
         <v>980</v>
@@ -904,10 +904,10 @@
         <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>18.5</v>
+        <v>55</v>
       </c>
       <c r="AO3" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="G4" t="n">
         <v>1.37</v>
       </c>
       <c r="H4" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="I4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J4" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M4" t="n">
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>1.02</v>
+        <v>6.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.12</v>
       </c>
       <c r="P4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="T4" t="n">
         <v>1.67</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="V4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="X4" t="n">
         <v>980</v>
       </c>
       <c r="Y4" t="n">
-        <v>240</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
         <v>1000</v>
@@ -1018,7 +1018,7 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH4" t="n">
         <v>980</v>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="I5" t="n">
-        <v>44</v>
+        <v>5.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>1.48</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>1.48</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.22</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.19</v>
+        <v>1.47</v>
       </c>
       <c r="S5" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V5" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.58</v>
+        <v>2.08</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,31 +1150,31 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AH5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S6" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W6" t="n">
         <v>2.16</v>
       </c>
-      <c r="V6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.1</v>
-      </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AA6" t="n">
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AC6" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>65</v>
+        <v>320</v>
       </c>
       <c r="AF6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="AJ6" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AK6" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
@@ -1342,61 +1342,61 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>1.76</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
         <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R7" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="W7" t="n">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="X7" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="Y7" t="n">
         <v>970</v>
@@ -1408,10 +1408,10 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD7" t="n">
         <v>970</v>
@@ -1420,7 +1420,7 @@
         <v>500</v>
       </c>
       <c r="AF7" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AG7" t="n">
         <v>40</v>
@@ -1447,7 +1447,7 @@
         <v>55</v>
       </c>
       <c r="AO7" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="G8" t="n">
         <v>1.2</v>
@@ -1486,43 +1486,43 @@
         <v>28</v>
       </c>
       <c r="I8" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J8" t="n">
         <v>7.6</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="R8" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="T8" t="n">
         <v>2.66</v>
       </c>
       <c r="U8" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="V8" t="n">
         <v>1.03</v>
@@ -1555,7 +1555,7 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
         <v>1000</v>
@@ -1612,85 +1612,85 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="H9" t="n">
         <v>4.6</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.25</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.21</v>
-      </c>
       <c r="P9" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="S9" t="n">
-        <v>2.58</v>
+        <v>2.92</v>
       </c>
       <c r="T9" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="U9" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="V9" t="n">
         <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="X9" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Y9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z9" t="n">
         <v>40</v>
       </c>
       <c r="AA9" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AF9" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG9" t="n">
         <v>11.5</v>
@@ -1699,7 +1699,7 @@
         <v>17.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ9" t="n">
         <v>21</v>
@@ -1708,16 +1708,16 @@
         <v>18.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="AN9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G10" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="J10" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
         <v>3.45</v>
       </c>
       <c r="L10" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P10" t="n">
         <v>1.65</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.08</v>
+        <v>2.38</v>
       </c>
       <c r="R10" t="n">
         <v>1.24</v>
       </c>
       <c r="S10" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="U10" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V10" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
@@ -1831,7 +1831,7 @@
         <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1900,7 +1900,7 @@
         <v>3.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="M11" t="n">
         <v>1.13</v>
@@ -1912,22 +1912,22 @@
         <v>1.55</v>
       </c>
       <c r="P11" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="R11" t="n">
         <v>1.2</v>
       </c>
       <c r="S11" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T11" t="n">
         <v>2.18</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V11" t="n">
         <v>1.27</v>
@@ -1963,7 +1963,7 @@
         <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
         <v>24</v>
@@ -1987,7 +1987,7 @@
         <v>26</v>
       </c>
       <c r="AO11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G12" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
@@ -2035,58 +2035,58 @@
         <v>4.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="Q12" t="n">
         <v>1.61</v>
       </c>
       <c r="R12" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T12" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="U12" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="V12" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W12" t="n">
         <v>1.79</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AA12" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="AB12" t="n">
         <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD12" t="n">
         <v>14.5</v>
@@ -2110,7 +2110,7 @@
         <v>30</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
         <v>28</v>
@@ -2122,7 +2122,7 @@
         <v>11.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G13" t="n">
         <v>2.3</v>
@@ -2161,58 +2161,58 @@
         <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K13" t="n">
         <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.12</v>
       </c>
       <c r="P13" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="S13" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="T13" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="U13" t="n">
         <v>3.05</v>
       </c>
       <c r="V13" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W13" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X13" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="Y13" t="n">
         <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AA13" t="n">
         <v>300</v>
@@ -2221,7 +2221,7 @@
         <v>55</v>
       </c>
       <c r="AC13" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
         <v>30</v>
@@ -2230,13 +2230,13 @@
         <v>980</v>
       </c>
       <c r="AF13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
         <v>18.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
         <v>980</v>
@@ -2248,13 +2248,13 @@
         <v>50</v>
       </c>
       <c r="AL13" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="n">
         <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO13" t="n">
         <v>46</v>
@@ -2290,7 +2290,7 @@
         <v>2.14</v>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H14" t="n">
         <v>3.25</v>
@@ -2305,34 +2305,34 @@
         <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.13</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R14" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S14" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="T14" t="n">
         <v>1.47</v>
       </c>
       <c r="U14" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="V14" t="n">
         <v>1.43</v>
@@ -2368,7 +2368,7 @@
         <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
         <v>32</v>
@@ -2392,7 +2392,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AO14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2425,10 +2425,10 @@
         <v>1.83</v>
       </c>
       <c r="G15" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I15" t="n">
         <v>4.3</v>
@@ -2440,7 +2440,7 @@
         <v>4.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M15" t="n">
         <v>1.02</v>
@@ -2452,28 +2452,28 @@
         <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R15" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="S15" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="T15" t="n">
         <v>1.49</v>
       </c>
       <c r="U15" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="V15" t="n">
         <v>1.3</v>
       </c>
       <c r="W15" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X15" t="n">
         <v>34</v>
@@ -2491,7 +2491,7 @@
         <v>17.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD15" t="n">
         <v>18.5</v>
@@ -2518,13 +2518,13 @@
         <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AM15" t="n">
         <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AO15" t="n">
         <v>25</v>
@@ -2557,58 +2557,58 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="G16" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P16" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R16" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S16" t="n">
         <v>4.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U16" t="n">
         <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W16" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="X16" t="n">
         <v>23</v>
@@ -2617,7 +2617,7 @@
         <v>26</v>
       </c>
       <c r="Z16" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
         <v>900</v>
@@ -2626,10 +2626,10 @@
         <v>10.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AE16" t="n">
         <v>370</v>
@@ -2641,7 +2641,7 @@
         <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
         <v>380</v>
@@ -2659,7 +2659,7 @@
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="AO16" t="n">
         <v>250</v>
@@ -2698,10 +2698,10 @@
         <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I17" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="J17" t="n">
         <v>3.1</v>
@@ -2710,25 +2710,25 @@
         <v>3.15</v>
       </c>
       <c r="L17" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N17" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="O17" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P17" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="R17" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2737,7 +2737,7 @@
         <v>2.04</v>
       </c>
       <c r="U17" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
         <v>1.54</v>
@@ -2746,7 +2746,7 @@
         <v>1.45</v>
       </c>
       <c r="X17" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Y17" t="n">
         <v>8.800000000000001</v>
@@ -2779,25 +2779,25 @@
         <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ17" t="n">
         <v>60</v>
       </c>
       <c r="AK17" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AL17" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM17" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AN17" t="n">
         <v>55</v>
       </c>
       <c r="AO17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -2845,13 +2845,13 @@
         <v>7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
         <v>1.23</v>
@@ -2860,16 +2860,16 @@
         <v>2.34</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S18" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T18" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U18" t="n">
         <v>1.7</v>
@@ -2881,7 +2881,7 @@
         <v>4.7</v>
       </c>
       <c r="X18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y18" t="n">
         <v>44</v>
@@ -2890,22 +2890,22 @@
         <v>160</v>
       </c>
       <c r="AA18" t="n">
-        <v>890</v>
+        <v>820</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD18" t="n">
         <v>60</v>
       </c>
       <c r="AE18" t="n">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="AF18" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AG18" t="n">
         <v>11</v>
@@ -2920,7 +2920,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AK18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL18" t="n">
         <v>46</v>
@@ -2932,7 +2932,7 @@
         <v>4.9</v>
       </c>
       <c r="AO18" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2968,10 +2968,10 @@
         <v>2.9</v>
       </c>
       <c r="H19" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I19" t="n">
         <v>2.78</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.82</v>
       </c>
       <c r="J19" t="n">
         <v>3.35</v>
@@ -2980,7 +2980,7 @@
         <v>3.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M19" t="n">
         <v>1.09</v>
@@ -2992,25 +2992,25 @@
         <v>1.39</v>
       </c>
       <c r="P19" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R19" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="U19" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V19" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W19" t="n">
         <v>1.52</v>
@@ -3022,10 +3022,10 @@
         <v>10.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB19" t="n">
         <v>10.5</v>
@@ -3043,28 +3043,28 @@
         <v>17.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ19" t="n">
         <v>46</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
         <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO19" t="n">
         <v>32</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="G2" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="I2" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M2" t="n">
         <v>1.09</v>
@@ -694,13 +694,13 @@
         <v>3.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R2" t="n">
         <v>1.27</v>
@@ -709,46 +709,46 @@
         <v>4.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="U2" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="W2" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="X2" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>32</v>
+        <v>12.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AF2" t="n">
         <v>110</v>
       </c>
       <c r="AG2" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AH2" t="n">
         <v>60</v>
@@ -757,7 +757,7 @@
         <v>980</v>
       </c>
       <c r="AJ2" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AK2" t="n">
         <v>370</v>
@@ -802,61 +802,61 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="G3" t="n">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="H3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K3" t="n">
         <v>4.5</v>
       </c>
-      <c r="I3" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4</v>
-      </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>1.76</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>3.5</v>
+        <v>2.92</v>
       </c>
       <c r="T3" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W3" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="X3" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Y3" t="n">
         <v>34</v>
@@ -868,25 +868,25 @@
         <v>900</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AE3" t="n">
         <v>190</v>
       </c>
       <c r="AF3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH3" t="n">
         <v>25</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>60</v>
       </c>
       <c r="AI3" t="n">
         <v>500</v>
@@ -895,19 +895,19 @@
         <v>48</v>
       </c>
       <c r="AK3" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AM3" t="n">
         <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>55</v>
+        <v>10.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G4" t="n">
         <v>1.37</v>
@@ -946,13 +946,13 @@
         <v>7.4</v>
       </c>
       <c r="I4" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="K4" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L4" t="n">
         <v>1.22</v>
@@ -961,25 +961,25 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P4" t="n">
         <v>3.15</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R4" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U4" t="n">
         <v>2.14</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
         <v>970</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1000</v>
       </c>
       <c r="AD4" t="n">
         <v>980</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.95</v>
+        <v>5.7</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="H5" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="I5" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
         <v>1.29</v>
@@ -1096,37 +1096,37 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="P5" t="n">
-        <v>2.12</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
         <v>1.47</v>
       </c>
       <c r="S5" t="n">
-        <v>2.5</v>
+        <v>1.27</v>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W5" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="X5" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AC5" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,31 +1150,31 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AG5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH5" t="n">
         <v>60</v>
       </c>
-      <c r="AH5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK5" t="n">
         <v>180</v>
       </c>
-      <c r="AK5" t="n">
-        <v>65</v>
-      </c>
       <c r="AL5" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H6" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K6" t="n">
         <v>4.2</v>
@@ -1237,82 +1237,82 @@
         <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R6" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U6" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="W6" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X6" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
         <v>17.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>900</v>
+        <v>130</v>
       </c>
       <c r="AB6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC6" t="n">
         <v>9</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
         <v>19.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="AF6" t="n">
         <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
         <v>330</v>
       </c>
       <c r="AJ6" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL6" t="n">
         <v>85</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="G7" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J7" t="n">
         <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.42</v>
@@ -1372,28 +1372,28 @@
         <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R7" t="n">
         <v>1.34</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T7" t="n">
         <v>1.84</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W7" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X7" t="n">
         <v>500</v>
@@ -1411,7 +1411,7 @@
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="n">
         <v>970</v>
@@ -1420,10 +1420,10 @@
         <v>500</v>
       </c>
       <c r="AF7" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
         <v>970</v>
@@ -1432,10 +1432,10 @@
         <v>500</v>
       </c>
       <c r="AJ7" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="AK7" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AL7" t="n">
         <v>970</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G8" t="n">
         <v>1.2</v>
@@ -1492,37 +1492,37 @@
         <v>7.6</v>
       </c>
       <c r="K8" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
         <v>2.78</v>
       </c>
       <c r="T8" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="U8" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
         <v>1.03</v>
@@ -1555,7 +1555,7 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>4.3</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1621,55 +1621,55 @@
         <v>4.6</v>
       </c>
       <c r="I9" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
         <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T9" t="n">
         <v>1.78</v>
       </c>
-      <c r="R9" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.74</v>
-      </c>
       <c r="U9" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W9" t="n">
         <v>2.12</v>
       </c>
       <c r="X9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="n">
         <v>40</v>
@@ -1678,25 +1678,25 @@
         <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
         <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
         <v>130</v>
@@ -1705,19 +1705,19 @@
         <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="n">
         <v>330</v>
       </c>
       <c r="AN9" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>65</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G10" t="n">
         <v>2.56</v>
@@ -1762,7 +1762,7 @@
         <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.52</v>
@@ -1771,13 +1771,13 @@
         <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O10" t="n">
         <v>1.45</v>
       </c>
       <c r="P10" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q10" t="n">
         <v>2.38</v>
@@ -1792,10 +1792,10 @@
         <v>1.94</v>
       </c>
       <c r="U10" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V10" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W10" t="n">
         <v>1.64</v>
@@ -1810,28 +1810,28 @@
         <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="n">
-        <v>14</v>
+        <v>7.6</v>
       </c>
       <c r="AD10" t="n">
         <v>32</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF10" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AG10" t="n">
         <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G11" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
         <v>3.15</v>
@@ -1900,7 +1900,7 @@
         <v>3.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M11" t="n">
         <v>1.13</v>
@@ -1915,34 +1915,34 @@
         <v>1.58</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="R11" t="n">
         <v>1.2</v>
       </c>
       <c r="S11" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U11" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W11" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="X11" t="n">
         <v>8.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA11" t="n">
         <v>110</v>
@@ -1954,19 +1954,19 @@
         <v>7</v>
       </c>
       <c r="AD11" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
         <v>75</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG11" t="n">
         <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
         <v>100</v>
@@ -1975,7 +1975,7 @@
         <v>27</v>
       </c>
       <c r="AK11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
         <v>60</v>
@@ -1984,10 +1984,10 @@
         <v>190</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO11" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G12" t="n">
         <v>2.3</v>
@@ -2026,13 +2026,13 @@
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
         <v>1.31</v>
@@ -2041,34 +2041,34 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q12" t="n">
         <v>1.61</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S12" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T12" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U12" t="n">
         <v>2.54</v>
       </c>
       <c r="V12" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="X12" t="n">
         <v>25</v>
@@ -2077,16 +2077,16 @@
         <v>19</v>
       </c>
       <c r="Z12" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AA12" t="n">
         <v>150</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
         <v>14.5</v>
@@ -2095,13 +2095,13 @@
         <v>34</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
         <v>38</v>
@@ -2110,7 +2110,7 @@
         <v>30</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
         <v>28</v>
@@ -2122,7 +2122,7 @@
         <v>11.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L13" t="n">
         <v>1.23</v>
@@ -2176,7 +2176,7 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="O13" t="n">
         <v>1.12</v>
@@ -2191,64 +2191,64 @@
         <v>1.94</v>
       </c>
       <c r="S13" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="T13" t="n">
         <v>1.43</v>
       </c>
       <c r="U13" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W13" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="X13" t="n">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="n">
         <v>90</v>
       </c>
       <c r="AA13" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="AB13" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="AC13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG13" t="n">
         <v>12</v>
       </c>
-      <c r="AD13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>50</v>
+        <v>19.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="AM13" t="n">
         <v>580</v>
@@ -2257,7 +2257,7 @@
         <v>9</v>
       </c>
       <c r="AO13" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G14" t="n">
         <v>2.22</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
         <v>3.3</v>
@@ -2302,7 +2302,7 @@
         <v>4.2</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.24</v>
@@ -2311,19 +2311,19 @@
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P14" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R14" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="S14" t="n">
         <v>2.06</v>
@@ -2335,7 +2335,7 @@
         <v>2.96</v>
       </c>
       <c r="V14" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W14" t="n">
         <v>1.83</v>
@@ -2353,13 +2353,13 @@
         <v>500</v>
       </c>
       <c r="AB14" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AC14" t="n">
         <v>13.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="AE14" t="n">
         <v>980</v>
@@ -2371,7 +2371,7 @@
         <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AI14" t="n">
         <v>980</v>
@@ -2380,16 +2380,16 @@
         <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AL14" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="G15" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H15" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="I15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J15" t="n">
         <v>4.3</v>
       </c>
       <c r="K15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.25</v>
@@ -2446,7 +2446,7 @@
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O15" t="n">
         <v>1.14</v>
@@ -2458,7 +2458,7 @@
         <v>1.45</v>
       </c>
       <c r="R15" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S15" t="n">
         <v>2.12</v>
@@ -2473,7 +2473,7 @@
         <v>1.3</v>
       </c>
       <c r="W15" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="X15" t="n">
         <v>34</v>
@@ -2485,7 +2485,7 @@
         <v>95</v>
       </c>
       <c r="AA15" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="AB15" t="n">
         <v>17.5</v>
@@ -2515,7 +2515,7 @@
         <v>44</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="n">
         <v>25</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G16" t="n">
         <v>2.2</v>
@@ -2569,25 +2569,25 @@
         <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
         <v>1.46</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P16" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q16" t="n">
         <v>2.14</v>
@@ -2605,10 +2605,10 @@
         <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W16" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X16" t="n">
         <v>23</v>
@@ -2629,7 +2629,7 @@
         <v>14</v>
       </c>
       <c r="AD16" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
         <v>370</v>
@@ -2641,7 +2641,7 @@
         <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI16" t="n">
         <v>380</v>
@@ -2659,7 +2659,7 @@
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
         <v>250</v>
@@ -2695,7 +2695,7 @@
         <v>3.05</v>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H17" t="n">
         <v>2.74</v>
@@ -2710,55 +2710,55 @@
         <v>3.15</v>
       </c>
       <c r="L17" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M17" t="n">
         <v>1.12</v>
       </c>
       <c r="N17" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="O17" t="n">
         <v>1.49</v>
       </c>
       <c r="P17" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="R17" t="n">
         <v>1.23</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="T17" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V17" t="n">
         <v>1.54</v>
       </c>
       <c r="W17" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X17" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y17" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
         <v>46</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC17" t="n">
         <v>6.8</v>
@@ -2794,7 +2794,7 @@
         <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO17" t="n">
         <v>40</v>
@@ -2833,10 +2833,10 @@
         <v>1.27</v>
       </c>
       <c r="H18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="I18" t="n">
         <v>15</v>
-      </c>
-      <c r="I18" t="n">
-        <v>16</v>
       </c>
       <c r="J18" t="n">
         <v>6.8</v>
@@ -2857,7 +2857,7 @@
         <v>1.23</v>
       </c>
       <c r="P18" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q18" t="n">
         <v>1.72</v>
@@ -2890,7 +2890,7 @@
         <v>160</v>
       </c>
       <c r="AA18" t="n">
-        <v>820</v>
+        <v>750</v>
       </c>
       <c r="AB18" t="n">
         <v>8.199999999999999</v>
@@ -2899,13 +2899,13 @@
         <v>15.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE18" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AF18" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AG18" t="n">
         <v>11</v>
@@ -2920,7 +2920,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AK18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL18" t="n">
         <v>46</v>
@@ -2929,10 +2929,10 @@
         <v>260</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G19" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H19" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I19" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="J19" t="n">
         <v>3.35</v>
@@ -2986,22 +2986,22 @@
         <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O19" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P19" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R19" t="n">
         <v>1.3</v>
       </c>
       <c r="S19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T19" t="n">
         <v>1.91</v>
@@ -3010,7 +3010,7 @@
         <v>2.06</v>
       </c>
       <c r="V19" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W19" t="n">
         <v>1.52</v>
@@ -3019,7 +3019,7 @@
         <v>11.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
         <v>16.5</v>
@@ -3046,7 +3046,7 @@
         <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI19" t="n">
         <v>50</v>
@@ -3055,7 +3055,7 @@
         <v>46</v>
       </c>
       <c r="AK19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
         <v>55</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -667,28 +667,28 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
         <v>3.2</v>
@@ -697,10 +697,10 @@
         <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R2" t="n">
         <v>1.27</v>
@@ -709,37 +709,37 @@
         <v>4.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
         <v>65</v>
@@ -748,10 +748,10 @@
         <v>110</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="AH2" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AI2" t="n">
         <v>980</v>
@@ -802,67 +802,67 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="G3" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="H3" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S3" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="U3" t="n">
         <v>2.16</v>
       </c>
       <c r="V3" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="W3" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="X3" t="n">
-        <v>28</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
         <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>990</v>
+        <v>970</v>
       </c>
       <c r="AA3" t="n">
         <v>900</v>
@@ -871,13 +871,13 @@
         <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
         <v>42</v>
       </c>
       <c r="AE3" t="n">
-        <v>190</v>
+        <v>980</v>
       </c>
       <c r="AF3" t="n">
         <v>19</v>
@@ -895,19 +895,19 @@
         <v>48</v>
       </c>
       <c r="AK3" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AL3" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
         <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>280</v>
+        <v>970</v>
       </c>
     </row>
     <row r="4">
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="G4" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="H4" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="I4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J4" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="K4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.22</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="R4" t="n">
         <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="T4" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
         <v>1.08</v>
       </c>
       <c r="W4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="X4" t="n">
         <v>980</v>
@@ -1006,10 +1006,10 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD4" t="n">
         <v>970</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>980</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1027,19 +1027,19 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="G5" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="H5" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="O5" t="n">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>1.5</v>
+        <v>1.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S5" t="n">
-        <v>1.27</v>
+        <v>2.64</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="V5" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,22 +1150,22 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="AH5" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AK5" t="n">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="G6" t="n">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
         <v>1.39</v>
       </c>
       <c r="S6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="W6" t="n">
-        <v>2.2</v>
+        <v>1.92</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AA6" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AK6" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN6" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="G7" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.42</v>
@@ -1366,37 +1366,37 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R7" t="n">
         <v>1.34</v>
       </c>
       <c r="S7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U7" t="n">
         <v>1.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W7" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="X7" t="n">
-        <v>500</v>
+        <v>27</v>
       </c>
       <c r="Y7" t="n">
         <v>970</v>
@@ -1408,31 +1408,31 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
         <v>14</v>
       </c>
       <c r="AD7" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AE7" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="AF7" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AG7" t="n">
         <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI7" t="n">
         <v>500</v>
       </c>
       <c r="AJ7" t="n">
-        <v>900</v>
+        <v>44</v>
       </c>
       <c r="AK7" t="n">
         <v>65</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AO7" t="n">
         <v>600</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="H8" t="n">
         <v>28</v>
       </c>
       <c r="I8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J8" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="K8" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L8" t="n">
         <v>1.33</v>
@@ -1501,7 +1501,7 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.22</v>
@@ -1516,10 +1516,10 @@
         <v>1.53</v>
       </c>
       <c r="S8" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="T8" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="U8" t="n">
         <v>1.53</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC8" t="n">
         <v>980</v>
@@ -1555,7 +1555,7 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
         <v>1000</v>
@@ -1615,10 +1615,10 @@
         <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I9" t="n">
         <v>5.3</v>
@@ -1645,28 +1645,28 @@
         <v>2.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="R9" t="n">
         <v>1.45</v>
       </c>
       <c r="S9" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W9" t="n">
         <v>2.12</v>
       </c>
       <c r="X9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
         <v>19</v>
@@ -1702,7 +1702,7 @@
         <v>130</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
         <v>19.5</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G10" t="n">
         <v>2.56</v>
@@ -1756,13 +1756,13 @@
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L10" t="n">
         <v>1.52</v>
@@ -1771,16 +1771,16 @@
         <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
         <v>1.45</v>
       </c>
       <c r="P10" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R10" t="n">
         <v>1.24</v>
@@ -1789,19 +1789,19 @@
         <v>4.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U10" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W10" t="n">
         <v>1.64</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
@@ -1819,7 +1819,7 @@
         <v>7.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
         <v>500</v>
@@ -1831,7 +1831,7 @@
         <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H11" t="n">
         <v>4.4</v>
@@ -1894,13 +1894,13 @@
         <v>4.5</v>
       </c>
       <c r="J11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.15</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.2</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="M11" t="n">
         <v>1.13</v>
@@ -1921,10 +1921,10 @@
         <v>1.2</v>
       </c>
       <c r="S11" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T11" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U11" t="n">
         <v>1.81</v>
@@ -1933,7 +1933,7 @@
         <v>1.28</v>
       </c>
       <c r="W11" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X11" t="n">
         <v>8.4</v>
@@ -1942,10 +1942,10 @@
         <v>11.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA11" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB11" t="n">
         <v>7</v>
@@ -1957,7 +1957,7 @@
         <v>18</v>
       </c>
       <c r="AE11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
         <v>11.5</v>
@@ -1975,7 +1975,7 @@
         <v>27</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
         <v>60</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
@@ -2032,7 +2032,7 @@
         <v>3.85</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.31</v>
@@ -2041,7 +2041,7 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
@@ -2050,7 +2050,7 @@
         <v>2.48</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R12" t="n">
         <v>1.58</v>
@@ -2059,34 +2059,34 @@
         <v>2.52</v>
       </c>
       <c r="T12" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="U12" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="V12" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W12" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X12" t="n">
         <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z12" t="n">
         <v>28</v>
       </c>
       <c r="AA12" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="AB12" t="n">
         <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD12" t="n">
         <v>14.5</v>
@@ -2095,7 +2095,7 @@
         <v>34</v>
       </c>
       <c r="AF12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
         <v>11.5</v>
@@ -2110,7 +2110,7 @@
         <v>30</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
         <v>28</v>
@@ -2122,7 +2122,7 @@
         <v>11.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="G13" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="H13" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -2176,7 +2176,7 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.12</v>
@@ -2185,64 +2185,64 @@
         <v>3.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R13" t="n">
         <v>1.94</v>
       </c>
       <c r="S13" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="T13" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="V13" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="X13" t="n">
         <v>36</v>
       </c>
       <c r="Y13" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="Z13" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="AA13" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AB13" t="n">
         <v>22</v>
       </c>
       <c r="AC13" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="AE13" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
         <v>13.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK13" t="n">
         <v>19.5</v>
@@ -2251,13 +2251,13 @@
         <v>23</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>46</v>
       </c>
       <c r="AN13" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K14" t="n">
         <v>4.4</v>
@@ -2311,7 +2311,7 @@
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.14</v>
@@ -2323,22 +2323,22 @@
         <v>1.43</v>
       </c>
       <c r="R14" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S14" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T14" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="U14" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="V14" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W14" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="X14" t="n">
         <v>980</v>
@@ -2356,7 +2356,7 @@
         <v>42</v>
       </c>
       <c r="AC14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
         <v>18</v>
@@ -2368,10 +2368,10 @@
         <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
         <v>980</v>
@@ -2380,16 +2380,16 @@
         <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>970</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,64 +2422,64 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="G15" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H15" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
         <v>4.3</v>
       </c>
       <c r="K15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M15" t="n">
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="R15" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="S15" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="T15" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="U15" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="V15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W15" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X15" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="Y15" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z15" t="n">
         <v>95</v>
@@ -2494,7 +2494,7 @@
         <v>12</v>
       </c>
       <c r="AD15" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>95</v>
@@ -2506,7 +2506,7 @@
         <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI15" t="n">
         <v>95</v>
@@ -2515,10 +2515,10 @@
         <v>44</v>
       </c>
       <c r="AK15" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AM15" t="n">
         <v>580</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="H16" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="J16" t="n">
         <v>3.25</v>
@@ -2575,25 +2575,25 @@
         <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
         <v>3.25</v>
       </c>
       <c r="O16" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P16" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R16" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S16" t="n">
         <v>4.4</v>
@@ -2605,10 +2605,10 @@
         <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W16" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="X16" t="n">
         <v>23</v>
@@ -2617,19 +2617,19 @@
         <v>26</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AA16" t="n">
         <v>900</v>
       </c>
       <c r="AB16" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC16" t="n">
         <v>14</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AE16" t="n">
         <v>370</v>
@@ -2641,28 +2641,28 @@
         <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="AJ16" t="n">
         <v>900</v>
       </c>
       <c r="AK16" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AM16" t="n">
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AO16" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17">
@@ -2692,34 +2692,34 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
         <v>3.05</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.84</v>
       </c>
       <c r="J17" t="n">
         <v>3.1</v>
       </c>
       <c r="K17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M17" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P17" t="n">
         <v>1.65</v>
@@ -2728,76 +2728,76 @@
         <v>2.46</v>
       </c>
       <c r="R17" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T17" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V17" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="W17" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="X17" t="n">
         <v>9.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC17" t="n">
         <v>6.8</v>
       </c>
       <c r="AD17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG17" t="n">
         <v>13</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AH17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK17" t="n">
         <v>38</v>
       </c>
-      <c r="AF17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI17" t="n">
+      <c r="AL17" t="n">
         <v>60</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>65</v>
       </c>
       <c r="AM17" t="n">
         <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AO17" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -2833,10 +2833,10 @@
         <v>1.27</v>
       </c>
       <c r="H18" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="I18" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="J18" t="n">
         <v>6.8</v>
@@ -2866,10 +2866,10 @@
         <v>1.52</v>
       </c>
       <c r="S18" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T18" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U18" t="n">
         <v>1.7</v>
@@ -2881,40 +2881,40 @@
         <v>4.7</v>
       </c>
       <c r="X18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y18" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z18" t="n">
         <v>160</v>
       </c>
       <c r="AA18" t="n">
-        <v>750</v>
+        <v>790</v>
       </c>
       <c r="AB18" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD18" t="n">
         <v>55</v>
       </c>
       <c r="AE18" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AF18" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AG18" t="n">
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI18" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AJ18" t="n">
         <v>8.800000000000001</v>
@@ -2923,16 +2923,16 @@
         <v>14</v>
       </c>
       <c r="AL18" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM18" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AO18" t="n">
-        <v>380</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="G19" t="n">
-        <v>2.92</v>
+        <v>2.74</v>
       </c>
       <c r="H19" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="I19" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
         <v>3.35</v>
@@ -2992,10 +2992,10 @@
         <v>1.41</v>
       </c>
       <c r="P19" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R19" t="n">
         <v>1.3</v>
@@ -3004,70 +3004,70 @@
         <v>4.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U19" t="n">
         <v>2.06</v>
       </c>
       <c r="V19" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="W19" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="X19" t="n">
         <v>11.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA19" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>42</v>
       </c>
-      <c r="AB19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE19" t="n">
+      <c r="AK19" t="n">
         <v>32</v>
       </c>
-      <c r="AF19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI19" t="n">
+      <c r="AL19" t="n">
         <v>50</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>55</v>
-      </c>
       <c r="AM19" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO19" t="n">
         <v>36</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
         <v>3.7</v>
@@ -691,16 +691,16 @@
         <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
         <v>1.27</v>
@@ -709,61 +709,61 @@
         <v>4.1</v>
       </c>
       <c r="T2" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.93</v>
       </c>
-      <c r="U2" t="n">
-        <v>1.9</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="W2" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="AA2" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AB2" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="AG2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH2" t="n">
         <v>26</v>
       </c>
-      <c r="AH2" t="n">
-        <v>36</v>
-      </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="AK2" t="n">
-        <v>370</v>
+        <v>210</v>
       </c>
       <c r="AL2" t="n">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="AM2" t="n">
         <v>580</v>
@@ -772,7 +772,7 @@
         <v>600</v>
       </c>
       <c r="AO2" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.95</v>
       </c>
-      <c r="G3" t="n">
-        <v>2.02</v>
-      </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>3.95</v>
@@ -835,67 +835,67 @@
         <v>2.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="U3" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V3" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="W3" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AA3" t="n">
         <v>900</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC3" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
       </c>
       <c r="AH3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>25</v>
       </c>
-      <c r="AI3" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>48</v>
-      </c>
       <c r="AK3" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
         <v>55</v>
@@ -904,7 +904,7 @@
         <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO3" t="n">
         <v>970</v>
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="G4" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="H4" t="n">
-        <v>8.4</v>
+        <v>12.5</v>
       </c>
       <c r="I4" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J4" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="K4" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.14</v>
       </c>
       <c r="P4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="R4" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="S4" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="W4" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
         <v>970</v>
@@ -1009,7 +1009,7 @@
         <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1021,25 +1021,25 @@
         <v>970</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="G5" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="H5" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="J5" t="n">
         <v>3.7</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.33</v>
@@ -1096,37 +1096,37 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R5" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S5" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="T5" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U5" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AC5" t="n">
         <v>19</v>
@@ -1156,7 +1156,7 @@
         <v>40</v>
       </c>
       <c r="AH5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="G6" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R6" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U6" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="W6" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
         <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
         <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN6" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I7" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
         <v>3.9</v>
@@ -1363,43 +1363,43 @@
         <v>1.42</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
         <v>1.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U7" t="n">
         <v>1.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W7" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X7" t="n">
         <v>27</v>
       </c>
       <c r="Y7" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="Z7" t="n">
         <v>970</v>
@@ -1426,13 +1426,13 @@
         <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AI7" t="n">
         <v>500</v>
       </c>
       <c r="AJ7" t="n">
-        <v>44</v>
+        <v>900</v>
       </c>
       <c r="AK7" t="n">
         <v>65</v>
@@ -1441,7 +1441,7 @@
         <v>970</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
         <v>29</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="G8" t="n">
         <v>1.19</v>
       </c>
       <c r="H8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" t="n">
         <v>34</v>
@@ -1492,43 +1492,43 @@
         <v>7.8</v>
       </c>
       <c r="K8" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="S8" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="T8" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="U8" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="V8" t="n">
         <v>1.03</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
         <v>980</v>
@@ -1555,7 +1555,7 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
         <v>1000</v>
@@ -1567,7 +1567,7 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="n">
         <v>980</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="G9" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="H9" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I9" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K9" t="n">
         <v>4.1</v>
@@ -1636,16 +1636,16 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
         <v>2.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R9" t="n">
         <v>1.45</v>
@@ -1654,13 +1654,13 @@
         <v>3.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="W9" t="n">
         <v>2.12</v>
@@ -1669,28 +1669,28 @@
         <v>17</v>
       </c>
       <c r="Y9" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
         <v>19</v>
       </c>
-      <c r="Z9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>21</v>
-      </c>
       <c r="AE9" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
         <v>11.5</v>
@@ -1699,25 +1699,25 @@
         <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
         <v>36</v>
       </c>
       <c r="AM9" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN9" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>280</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G10" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
         <v>3.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.52</v>
@@ -1780,37 +1780,37 @@
         <v>1.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U10" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V10" t="n">
         <v>1.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X10" t="n">
         <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB10" t="n">
         <v>19</v>
@@ -1819,22 +1819,22 @@
         <v>7.6</v>
       </c>
       <c r="AD10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
         <v>18</v>
       </c>
-      <c r="AE10" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AG10" t="n">
         <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
@@ -1894,10 +1894,10 @@
         <v>4.5</v>
       </c>
       <c r="J11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.15</v>
       </c>
       <c r="L11" t="n">
         <v>1.63</v>
@@ -1906,28 +1906,28 @@
         <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="O11" t="n">
         <v>1.55</v>
       </c>
       <c r="P11" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="R11" t="n">
         <v>1.2</v>
       </c>
       <c r="S11" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="T11" t="n">
         <v>2.18</v>
       </c>
       <c r="U11" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V11" t="n">
         <v>1.28</v>
@@ -1939,13 +1939,13 @@
         <v>8.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
         <v>30</v>
       </c>
       <c r="AA11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB11" t="n">
         <v>7</v>
@@ -1969,22 +1969,22 @@
         <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
         <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO11" t="n">
         <v>120</v>
@@ -2020,10 +2020,10 @@
         <v>2.22</v>
       </c>
       <c r="G12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
         <v>3.45</v>
@@ -2032,61 +2032,61 @@
         <v>3.85</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="R12" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="T12" t="n">
         <v>1.55</v>
       </c>
       <c r="U12" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="V12" t="n">
         <v>1.41</v>
       </c>
       <c r="W12" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA12" t="n">
         <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD12" t="n">
         <v>14.5</v>
@@ -2095,7 +2095,7 @@
         <v>34</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG12" t="n">
         <v>11.5</v>
@@ -2110,19 +2110,19 @@
         <v>30</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
         <v>28</v>
       </c>
       <c r="AM12" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AN12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -2152,37 +2152,37 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="G13" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="H13" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
         <v>1.12</v>
       </c>
       <c r="P13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q13" t="n">
         <v>1.39</v>
@@ -2191,61 +2191,61 @@
         <v>1.94</v>
       </c>
       <c r="S13" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="T13" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="U13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W13" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="X13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="Z13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA13" t="n">
-        <v>970</v>
+        <v>300</v>
       </c>
       <c r="AB13" t="n">
         <v>22</v>
       </c>
       <c r="AC13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AF13" t="n">
         <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
         <v>23</v>
@@ -2257,7 +2257,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="14">
@@ -2290,16 +2290,16 @@
         <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H14" t="n">
         <v>3.05</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J14" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K14" t="n">
         <v>4.4</v>
@@ -2311,31 +2311,31 @@
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.14</v>
       </c>
       <c r="P14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="R14" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="S14" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="T14" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.45</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.46</v>
       </c>
       <c r="W14" t="n">
         <v>1.79</v>
@@ -2353,13 +2353,13 @@
         <v>500</v>
       </c>
       <c r="AB14" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
         <v>980</v>
@@ -2368,7 +2368,7 @@
         <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>970</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.800000000000001</v>
+        <v>55</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G15" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H15" t="n">
         <v>4.1</v>
@@ -2434,7 +2434,7 @@
         <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K15" t="n">
         <v>4.7</v>
@@ -2446,10 +2446,10 @@
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P15" t="n">
         <v>3.1</v>
@@ -2458,13 +2458,13 @@
         <v>1.43</v>
       </c>
       <c r="R15" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U15" t="n">
         <v>2.8</v>
@@ -2476,13 +2476,13 @@
         <v>2.16</v>
       </c>
       <c r="X15" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="Y15" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Z15" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
         <v>190</v>
@@ -2494,10 +2494,10 @@
         <v>12</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
         <v>17.5</v>
@@ -2509,25 +2509,25 @@
         <v>15.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AJ15" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="AK15" t="n">
         <v>17.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="AM15" t="n">
         <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO15" t="n">
-        <v>25</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="G16" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
         <v>3.5</v>
@@ -2581,7 +2581,7 @@
         <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.39</v>
@@ -2590,7 +2590,7 @@
         <v>1.74</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R16" t="n">
         <v>1.27</v>
@@ -2599,16 +2599,16 @@
         <v>4.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U16" t="n">
         <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W16" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="X16" t="n">
         <v>23</v>
@@ -2617,16 +2617,16 @@
         <v>26</v>
       </c>
       <c r="Z16" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
         <v>900</v>
       </c>
       <c r="AB16" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="AC16" t="n">
-        <v>14</v>
+        <v>7.4</v>
       </c>
       <c r="AD16" t="n">
         <v>36</v>
@@ -2635,22 +2635,22 @@
         <v>370</v>
       </c>
       <c r="AF16" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
         <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI16" t="n">
         <v>170</v>
       </c>
       <c r="AJ16" t="n">
-        <v>900</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="AL16" t="n">
         <v>50</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="G17" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I17" t="n">
         <v>3</v>
       </c>
-      <c r="I17" t="n">
-        <v>3.05</v>
-      </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
         <v>3.2</v>
@@ -2716,16 +2716,16 @@
         <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O17" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P17" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R17" t="n">
         <v>1.24</v>
@@ -2734,19 +2734,19 @@
         <v>4.9</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U17" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="V17" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W17" t="n">
         <v>1.53</v>
       </c>
       <c r="X17" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="Y17" t="n">
         <v>9.4</v>
@@ -2761,10 +2761,10 @@
         <v>9</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE17" t="n">
         <v>42</v>
@@ -2776,13 +2776,13 @@
         <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ17" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK17" t="n">
         <v>38</v>
@@ -2791,13 +2791,13 @@
         <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO17" t="n">
         <v>44</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -2833,10 +2833,10 @@
         <v>1.27</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="I18" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="J18" t="n">
         <v>6.8</v>
@@ -2851,7 +2851,7 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O18" t="n">
         <v>1.23</v>
@@ -2863,16 +2863,16 @@
         <v>1.72</v>
       </c>
       <c r="R18" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S18" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="T18" t="n">
         <v>2.38</v>
       </c>
       <c r="U18" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V18" t="n">
         <v>1.06</v>
@@ -2881,7 +2881,7 @@
         <v>4.7</v>
       </c>
       <c r="X18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y18" t="n">
         <v>42</v>
@@ -2890,22 +2890,22 @@
         <v>160</v>
       </c>
       <c r="AA18" t="n">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD18" t="n">
         <v>55</v>
       </c>
       <c r="AE18" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="AF18" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AG18" t="n">
         <v>11</v>
@@ -2932,7 +2932,7 @@
         <v>4.9</v>
       </c>
       <c r="AO18" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19">
@@ -2962,82 +2962,82 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G19" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="H19" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="P19" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="R19" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="S19" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="U19" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V19" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W19" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X19" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD19" t="n">
         <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="n">
         <v>16</v>
@@ -3046,28 +3046,28 @@
         <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ19" t="n">
         <v>42</v>
       </c>
       <c r="AK19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN19" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AO19" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.1</v>
+        <v>6.8</v>
       </c>
       <c r="G2" t="n">
-        <v>4.6</v>
+        <v>690</v>
       </c>
       <c r="H2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N2" t="n">
         <v>2</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.3</v>
-      </c>
       <c r="O2" t="n">
-        <v>1.39</v>
+        <v>1.76</v>
       </c>
       <c r="P2" t="n">
-        <v>1.75</v>
+        <v>1.28</v>
       </c>
       <c r="Q2" t="n">
         <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.27</v>
+        <v>1.08</v>
       </c>
       <c r="S2" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.96</v>
+        <v>1.1</v>
       </c>
       <c r="U2" t="n">
-        <v>1.93</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="W2" t="n">
-        <v>1.28</v>
+        <v>1.07</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>990</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>17.5</v>
+        <v>990</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39</v>
+        <v>1.91</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1</v>
+        <v>2.66</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.56</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>1.52</v>
       </c>
       <c r="Q3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.87</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.04</v>
-      </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.6</v>
+        <v>6.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="AJ3" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>310</v>
       </c>
       <c r="AN3" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="AO3" t="n">
-        <v>970</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4">
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="G4" t="n">
         <v>1.27</v>
       </c>
       <c r="H4" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J4" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
-        <v>8.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.23</v>
+        <v>1.02</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>6.8</v>
+        <v>2.02</v>
       </c>
       <c r="O4" t="n">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="R4" t="n">
-        <v>1.81</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W4" t="n">
         <v>4.7</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1006,10 +1006,10 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD4" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,16 +1018,16 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>970</v>
+        <v>990</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="G5" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="R5" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T5" t="n">
         <v>1.64</v>
       </c>
       <c r="U5" t="n">
-        <v>2.06</v>
+        <v>2.46</v>
       </c>
       <c r="V5" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AC5" t="n">
         <v>19</v>
@@ -1150,22 +1150,22 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="AK5" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G6" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="J6" t="n">
         <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>1.42</v>
@@ -1231,10 +1231,10 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -1243,43 +1243,43 @@
         <v>1.94</v>
       </c>
       <c r="R6" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W6" t="n">
         <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA6" t="n">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE6" t="n">
         <v>55</v>
@@ -1294,7 +1294,7 @@
         <v>18.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
         <v>23</v>
@@ -1303,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AN6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
         <v>150</v>
@@ -1345,46 +1345,46 @@
         <v>1.74</v>
       </c>
       <c r="G7" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="H7" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.42</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
         <v>1.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
         <v>1.96</v>
@@ -1393,13 +1393,13 @@
         <v>1.21</v>
       </c>
       <c r="W7" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="X7" t="n">
         <v>27</v>
       </c>
       <c r="Y7" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Z7" t="n">
         <v>970</v>
@@ -1414,19 +1414,19 @@
         <v>14</v>
       </c>
       <c r="AD7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE7" t="n">
         <v>500</v>
       </c>
-      <c r="AE7" t="n">
-        <v>210</v>
-      </c>
       <c r="AF7" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AG7" t="n">
         <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AI7" t="n">
         <v>500</v>
@@ -1468,118 +1468,118 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Digenis Ypsona</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Olympiakos Nicosia FC</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.18</v>
+        <v>2.52</v>
       </c>
       <c r="G8" t="n">
-        <v>1.19</v>
+        <v>2.66</v>
       </c>
       <c r="H8" t="n">
-        <v>29</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
         <v>34</v>
       </c>
-      <c r="J8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X8" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>210</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH8" t="n">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ8" t="n">
-        <v>20</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.88</v>
+        <v>1.19</v>
       </c>
       <c r="G9" t="n">
-        <v>1.89</v>
+        <v>1.21</v>
       </c>
       <c r="H9" t="n">
-        <v>4.4</v>
+        <v>28</v>
       </c>
       <c r="I9" t="n">
-        <v>4.8</v>
+        <v>29</v>
       </c>
       <c r="J9" t="n">
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L9" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="X9" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>330</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN9" t="n">
         <v>4.3</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="X9" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>340</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AO9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Digenis Ypsona</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia FC</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.44</v>
+        <v>1.87</v>
       </c>
       <c r="G10" t="n">
-        <v>2.62</v>
+        <v>1.89</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.05</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>1.66</v>
+        <v>2.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.38</v>
+        <v>1.76</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>4.7</v>
+        <v>2.88</v>
       </c>
       <c r="T10" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="U10" t="n">
-        <v>1.94</v>
+        <v>2.22</v>
       </c>
       <c r="V10" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="W10" t="n">
-        <v>1.62</v>
+        <v>2.12</v>
       </c>
       <c r="X10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>23</v>
       </c>
-      <c r="Y10" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="G11" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="H11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J11" t="n">
         <v>4.4</v>
       </c>
-      <c r="I11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K11" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.63</v>
+        <v>1.22</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>2.76</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.55</v>
+        <v>1.11</v>
       </c>
       <c r="P11" t="n">
-        <v>1.57</v>
+        <v>3.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.68</v>
+        <v>1.36</v>
       </c>
       <c r="R11" t="n">
-        <v>1.2</v>
+        <v>2.08</v>
       </c>
       <c r="S11" t="n">
-        <v>5.7</v>
+        <v>1.87</v>
       </c>
       <c r="T11" t="n">
-        <v>2.18</v>
+        <v>1.37</v>
       </c>
       <c r="U11" t="n">
-        <v>1.82</v>
+        <v>3.4</v>
       </c>
       <c r="V11" t="n">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="W11" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="X11" t="n">
-        <v>8.4</v>
+        <v>46</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AB11" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
         <v>70</v>
       </c>
       <c r="AF11" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AI11" t="n">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="AJ11" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="AM11" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="n">
-        <v>28</v>
+        <v>7.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G12" t="n">
         <v>2.22</v>
       </c>
-      <c r="G12" t="n">
-        <v>2.26</v>
-      </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>3.05</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.63</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="N12" t="n">
-        <v>5.3</v>
+        <v>2.72</v>
       </c>
       <c r="O12" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.2</v>
       </c>
-      <c r="P12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S12" t="n">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.55</v>
+        <v>2.24</v>
       </c>
       <c r="U12" t="n">
-        <v>2.62</v>
+        <v>1.79</v>
       </c>
       <c r="V12" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="W12" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X12" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>900</v>
+        <v>110</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.5</v>
+        <v>6.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AF12" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
         <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AL12" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
         <v>200</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AO12" t="n">
-        <v>23</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="G13" t="n">
-        <v>2.26</v>
+        <v>2.56</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="I13" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J13" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>3.3</v>
+        <v>2.42</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.39</v>
+        <v>1.65</v>
       </c>
       <c r="R13" t="n">
-        <v>1.94</v>
+        <v>1.56</v>
       </c>
       <c r="S13" t="n">
-        <v>1.97</v>
+        <v>2.66</v>
       </c>
       <c r="T13" t="n">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="U13" t="n">
-        <v>3.2</v>
+        <v>2.66</v>
       </c>
       <c r="V13" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="W13" t="n">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="X13" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>38</v>
       </c>
-      <c r="Y13" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>300</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>34</v>
-      </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AL13" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AM13" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AN13" t="n">
-        <v>8.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="14">
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G14" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H14" t="n">
         <v>3.05</v>
@@ -2299,10 +2299,10 @@
         <v>3.25</v>
       </c>
       <c r="J14" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.24</v>
@@ -2314,22 +2314,22 @@
         <v>7.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="R14" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="S14" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T14" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="U14" t="n">
         <v>3.05</v>
@@ -2338,61 +2338,61 @@
         <v>1.45</v>
       </c>
       <c r="W14" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X14" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA14" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AB14" t="n">
         <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AF14" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AJ14" t="n">
         <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AM14" t="n">
         <v>970</v>
       </c>
       <c r="AN14" t="n">
-        <v>55</v>
+        <v>8.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G15" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K15" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L15" t="n">
         <v>1.24</v>
@@ -2446,61 +2446,61 @@
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.15</v>
       </c>
       <c r="P15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q15" t="n">
         <v>1.43</v>
       </c>
       <c r="R15" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="S15" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="T15" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="U15" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="V15" t="n">
         <v>1.29</v>
       </c>
       <c r="W15" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X15" t="n">
         <v>34</v>
       </c>
       <c r="Y15" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AA15" t="n">
         <v>190</v>
       </c>
       <c r="AB15" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AE15" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AF15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
         <v>12</v>
@@ -2509,25 +2509,25 @@
         <v>15.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="n">
         <v>23</v>
       </c>
       <c r="AK15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM15" t="n">
         <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>240</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G16" t="n">
         <v>2.24</v>
       </c>
-      <c r="G16" t="n">
-        <v>2.42</v>
-      </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J16" t="n">
         <v>3.15</v>
@@ -2581,7 +2581,7 @@
         <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O16" t="n">
         <v>1.39</v>
@@ -2590,55 +2590,55 @@
         <v>1.74</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R16" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S16" t="n">
         <v>4.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U16" t="n">
         <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AA16" t="n">
-        <v>900</v>
+        <v>290</v>
       </c>
       <c r="AB16" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE16" t="n">
         <v>370</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AH16" t="n">
         <v>60</v>
@@ -2647,13 +2647,13 @@
         <v>170</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK16" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AL16" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM16" t="n">
         <v>580</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>AZ Picerno ASD</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.86</v>
+        <v>2.34</v>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>2.44</v>
       </c>
       <c r="H17" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O17" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="P17" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="R17" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.99</v>
+        <v>1.78</v>
       </c>
       <c r="U17" t="n">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="V17" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="W17" t="n">
-        <v>1.53</v>
+        <v>1.69</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AA17" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AB17" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD17" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AE17" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AF17" t="n">
         <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AI17" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AK17" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
         <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AN17" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AO17" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,261 +2813,396 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.26</v>
+        <v>2.86</v>
       </c>
       <c r="G18" t="n">
-        <v>1.27</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
-        <v>15.5</v>
+        <v>2.96</v>
       </c>
       <c r="I18" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC18" t="n">
         <v>6.8</v>
       </c>
-      <c r="K18" t="n">
-        <v>7</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W18" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X18" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y18" t="n">
+      <c r="AD18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE18" t="n">
         <v>42</v>
       </c>
-      <c r="Z18" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>320</v>
-      </c>
       <c r="AF18" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK18" t="n">
         <v>38</v>
       </c>
-      <c r="AI18" t="n">
-        <v>230</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>14</v>
-      </c>
       <c r="AL18" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.9</v>
+        <v>40</v>
       </c>
       <c r="AO18" t="n">
-        <v>420</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>US Cremonese</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>16</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>7</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="X19" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>370</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>240</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>2026-01-12</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Sevilla</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Celta Vigo</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="F20" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H20" t="n">
         <v>3</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>3.05</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J20" t="n">
         <v>3.25</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K20" t="n">
         <v>3.3</v>
       </c>
-      <c r="L19" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="L20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M20" t="n">
         <v>1.1</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N20" t="n">
         <v>3.15</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="O20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R20" t="n">
         <v>1.26</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S20" t="n">
         <v>4.6</v>
       </c>
-      <c r="T19" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U19" t="n">
+      <c r="T20" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U20" t="n">
         <v>2.02</v>
       </c>
-      <c r="V19" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="X19" t="n">
+      <c r="V20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X20" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y19" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z19" t="n">
+      <c r="Y20" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z20" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA20" t="n">
         <v>50</v>
       </c>
-      <c r="AB19" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE19" t="n">
+      <c r="AB20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE20" t="n">
         <v>38</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF20" t="n">
         <v>16</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG20" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH20" t="n">
         <v>19.5</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI20" t="n">
         <v>60</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ20" t="n">
         <v>42</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK20" t="n">
         <v>34</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL20" t="n">
         <v>55</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM20" t="n">
         <v>130</v>
       </c>
-      <c r="AN19" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>40</v>
+      <c r="AN20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,72 +653,72 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Arabi Al-Saudi</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Puskas Akademia</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.8</v>
+        <v>1.99</v>
       </c>
       <c r="G2" t="n">
-        <v>690</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.73</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.18</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>5.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.76</v>
+        <v>1.19</v>
       </c>
       <c r="P2" t="n">
-        <v>1.28</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>1.18</v>
       </c>
       <c r="R2" t="n">
-        <v>1.08</v>
+        <v>1.6</v>
       </c>
       <c r="S2" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="T2" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
         <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.86</v>
+        <v>1.33</v>
       </c>
       <c r="W2" t="n">
-        <v>1.07</v>
+        <v>1.96</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:40:00</t>
+          <t>12:10:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="G3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U3" t="n">
         <v>2.16</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.68</v>
       </c>
       <c r="V3" t="n">
         <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="X3" t="n">
-        <v>9.199999999999999</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="n">
         <v>36</v>
       </c>
       <c r="AA3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.6</v>
+        <v>9.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL3" t="n">
         <v>34</v>
       </c>
-      <c r="AI3" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>85</v>
-      </c>
       <c r="AM3" t="n">
-        <v>310</v>
+        <v>95</v>
       </c>
       <c r="AN3" t="n">
-        <v>34</v>
+        <v>11.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:50:00</t>
+          <t>12:35:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.15</v>
+        <v>1.77</v>
       </c>
       <c r="G4" t="n">
-        <v>1.27</v>
+        <v>1.83</v>
       </c>
       <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X4" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC4" t="n">
         <v>9</v>
       </c>
-      <c r="I4" t="n">
-        <v>23</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X4" t="n">
-        <v>36</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>990</v>
-      </c>
       <c r="AD4" t="n">
-        <v>990</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>990</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>990</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.2</v>
+        <v>12.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,102 +1058,102 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Digenis Ypsona</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Puskas Akademia</t>
+          <t>Olympiakos Nicosia FC</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.82</v>
+        <v>2.7</v>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>2.86</v>
       </c>
       <c r="H5" t="n">
-        <v>4.4</v>
+        <v>3.15</v>
       </c>
       <c r="I5" t="n">
-        <v>5.2</v>
+        <v>3.35</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>2.92</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="N5" t="n">
-        <v>4.5</v>
+        <v>2.94</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="P5" t="n">
-        <v>2.24</v>
+        <v>1.62</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.69</v>
+        <v>2.46</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.23</v>
       </c>
       <c r="S5" t="n">
-        <v>2.74</v>
+        <v>4.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.64</v>
+        <v>1.95</v>
       </c>
       <c r="U5" t="n">
-        <v>2.46</v>
+        <v>1.92</v>
       </c>
       <c r="V5" t="n">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="W5" t="n">
-        <v>2.08</v>
+        <v>1.54</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AB5" t="n">
-        <v>70</v>
+        <v>15.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>19</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="AG5" t="n">
-        <v>60</v>
+        <v>19.5</v>
       </c>
       <c r="AH5" t="n">
         <v>60</v>
@@ -1162,10 +1162,10 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AK5" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:10:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.02</v>
+        <v>1.21</v>
       </c>
       <c r="H6" t="n">
+        <v>23</v>
+      </c>
+      <c r="I6" t="n">
+        <v>27</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
         <v>4.1</v>
       </c>
-      <c r="I6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2</v>
-      </c>
-      <c r="X6" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>340</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>14</v>
-      </c>
       <c r="AO6" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:35:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="G7" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="I7" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
         <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="U7" t="n">
-        <v>1.96</v>
+        <v>2.22</v>
       </c>
       <c r="V7" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X7" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="n">
-        <v>32</v>
+        <v>19.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>21</v>
       </c>
-      <c r="AC7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>900</v>
-      </c>
       <c r="AK7" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="AL7" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>29</v>
+        <v>10.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Digenis Ypsona</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia FC</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.52</v>
+        <v>2.22</v>
       </c>
       <c r="G8" t="n">
-        <v>2.66</v>
+        <v>2.24</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.96</v>
+        <v>2.72</v>
       </c>
       <c r="O8" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="P8" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.42</v>
+        <v>2.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="S8" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="U8" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="V8" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="W8" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="X8" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA8" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AB8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF8" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>22</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AI8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL8" t="n">
         <v>60</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AM8" t="n">
         <v>190</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.19</v>
+        <v>2.64</v>
       </c>
       <c r="G9" t="n">
-        <v>1.21</v>
+        <v>2.7</v>
       </c>
       <c r="H9" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X9" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE9" t="n">
         <v>28</v>
       </c>
-      <c r="I9" t="n">
-        <v>29</v>
-      </c>
-      <c r="J9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W9" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="X9" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF9" t="n">
-        <v>7.2</v>
+        <v>20</v>
       </c>
       <c r="AG9" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AL9" t="n">
-        <v>330</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.3</v>
+        <v>18</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="G10" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="H10" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.7</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P10" t="n">
         <v>4.1</v>
       </c>
-      <c r="L10" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.22</v>
-      </c>
       <c r="Q10" t="n">
-        <v>1.76</v>
+        <v>1.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>2.3</v>
       </c>
       <c r="S10" t="n">
-        <v>2.88</v>
+        <v>1.75</v>
       </c>
       <c r="T10" t="n">
-        <v>1.78</v>
+        <v>1.33</v>
       </c>
       <c r="U10" t="n">
-        <v>2.22</v>
+        <v>3.7</v>
       </c>
       <c r="V10" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="W10" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="X10" t="n">
-        <v>18.5</v>
+        <v>55</v>
       </c>
       <c r="Y10" t="n">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="AB10" t="n">
-        <v>11.5</v>
+        <v>27</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AF10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH10" t="n">
         <v>13.5</v>
       </c>
-      <c r="AG10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>17</v>
-      </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AK10" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AN10" t="n">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="AO10" t="n">
-        <v>50</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,33 +1868,33 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="G11" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="J11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K11" t="n">
         <v>4.6</v>
@@ -1906,94 +1906,94 @@
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R11" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="S11" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="T11" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="U11" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="W11" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="X11" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="Z11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB11" t="n">
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AF11" t="n">
         <v>22</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI11" t="n">
         <v>28</v>
       </c>
       <c r="AJ11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
         <v>22</v>
       </c>
       <c r="AM11" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="G12" t="n">
-        <v>2.22</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I12" t="n">
         <v>4.4</v>
       </c>
-      <c r="I12" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J12" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P12" t="n">
         <v>3.05</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.56</v>
-      </c>
       <c r="Q12" t="n">
-        <v>2.72</v>
+        <v>1.45</v>
       </c>
       <c r="R12" t="n">
-        <v>1.2</v>
+        <v>1.82</v>
       </c>
       <c r="S12" t="n">
-        <v>5.7</v>
+        <v>2.14</v>
       </c>
       <c r="T12" t="n">
-        <v>2.24</v>
+        <v>1.48</v>
       </c>
       <c r="U12" t="n">
-        <v>1.79</v>
+        <v>2.78</v>
       </c>
       <c r="V12" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>1.81</v>
+        <v>2.16</v>
       </c>
       <c r="X12" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>29</v>
       </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AA12" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.8</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
         <v>18</v>
       </c>
       <c r="AE12" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>23</v>
       </c>
-      <c r="AI12" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>28</v>
-      </c>
       <c r="AK12" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="AM12" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AN12" t="n">
-        <v>28</v>
+        <v>6.8</v>
       </c>
       <c r="AO12" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.46</v>
+        <v>2.08</v>
       </c>
       <c r="G13" t="n">
-        <v>2.56</v>
+        <v>2.22</v>
       </c>
       <c r="H13" t="n">
-        <v>2.86</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.98</v>
+        <v>4.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>5.3</v>
+        <v>3.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.21</v>
+        <v>1.39</v>
       </c>
       <c r="P13" t="n">
-        <v>2.42</v>
+        <v>1.74</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>2.18</v>
       </c>
       <c r="R13" t="n">
-        <v>1.56</v>
+        <v>1.28</v>
       </c>
       <c r="S13" t="n">
-        <v>2.66</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.54</v>
+        <v>1.84</v>
       </c>
       <c r="U13" t="n">
-        <v>2.66</v>
+        <v>2.04</v>
       </c>
       <c r="V13" t="n">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="W13" t="n">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="X13" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y13" t="n">
         <v>23</v>
       </c>
-      <c r="Y13" t="n">
-        <v>17</v>
-      </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="AA13" t="n">
+        <v>290</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>370</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL13" t="n">
         <v>48</v>
       </c>
-      <c r="AB13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>30</v>
-      </c>
       <c r="AM13" t="n">
-        <v>60</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AO13" t="n">
-        <v>19.5</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>AZ Picerno ASD</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="G14" t="n">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="H14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N14" t="n">
         <v>3.05</v>
       </c>
-      <c r="I14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="O14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S14" t="n">
         <v>4.3</v>
       </c>
-      <c r="K14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.02</v>
-      </c>
       <c r="T14" t="n">
-        <v>1.45</v>
+        <v>1.78</v>
       </c>
       <c r="U14" t="n">
-        <v>3.05</v>
+        <v>1.85</v>
       </c>
       <c r="V14" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="W14" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="X14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>34</v>
       </c>
-      <c r="Y14" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN14" t="n">
         <v>32</v>
       </c>
-      <c r="AA14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>970</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AO14" t="n">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.82</v>
+        <v>2.8</v>
       </c>
       <c r="G15" t="n">
-        <v>1.87</v>
+        <v>2.84</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.9</v>
+        <v>3.15</v>
       </c>
       <c r="L15" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R15" t="n">
         <v>1.24</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.87</v>
-      </c>
       <c r="S15" t="n">
-        <v>2.06</v>
+        <v>5</v>
       </c>
       <c r="T15" t="n">
+        <v>2</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.47</v>
       </c>
-      <c r="U15" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.29</v>
-      </c>
       <c r="W15" t="n">
-        <v>2.14</v>
+        <v>1.54</v>
       </c>
       <c r="X15" t="n">
-        <v>34</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y15" t="n">
-        <v>46</v>
+        <v>9.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>95</v>
+        <v>18.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="AB15" t="n">
-        <v>18</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>12.5</v>
+        <v>6.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>30</v>
+        <v>13.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AF15" t="n">
         <v>17</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AJ15" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="AK15" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AL15" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.6</v>
+        <v>40</v>
       </c>
       <c r="AO15" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>1.26</v>
       </c>
       <c r="G16" t="n">
-        <v>2.24</v>
+        <v>1.27</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>15.5</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>16</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>6.8</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>7.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>3.15</v>
+        <v>5.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>1.74</v>
+        <v>2.38</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.18</v>
+        <v>1.71</v>
       </c>
       <c r="R16" t="n">
-        <v>1.28</v>
+        <v>1.54</v>
       </c>
       <c r="S16" t="n">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="T16" t="n">
-        <v>1.86</v>
+        <v>2.4</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="V16" t="n">
-        <v>1.3</v>
+        <v>1.06</v>
       </c>
       <c r="W16" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="X16" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Y16" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="Z16" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="AA16" t="n">
-        <v>290</v>
+        <v>800</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.8</v>
+        <v>15.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AE16" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AF16" t="n">
-        <v>21</v>
+        <v>6.6</v>
       </c>
       <c r="AG16" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AI16" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="AJ16" t="n">
-        <v>900</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK16" t="n">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="AL16" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>250</v>
       </c>
       <c r="AN16" t="n">
-        <v>55</v>
+        <v>4.8</v>
       </c>
       <c r="AO16" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,531 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AZ Picerno ASD</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.34</v>
+        <v>2.7</v>
       </c>
       <c r="G17" t="n">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="I17" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="J17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.3</v>
       </c>
-      <c r="K17" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L17" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P17" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S17" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.78</v>
+        <v>1.97</v>
       </c>
       <c r="U17" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="W17" t="n">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="X17" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="Z17" t="n">
-        <v>29</v>
+        <v>17.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AE17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI17" t="n">
         <v>60</v>
       </c>
-      <c r="AF17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>75</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AK17" t="n">
         <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AN17" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO17" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Spanish Segunda Division</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2026-01-12</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Cordoba</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X18" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Italian Serie A</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2026-01-12</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>US Cremonese</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="H19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>16</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>7</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W19" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X19" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>370</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Spanish La Liga</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2026-01-12</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Sevilla</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Celta Vigo</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,72 +653,72 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:35:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Puskas Akademia</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.99</v>
+        <v>2.28</v>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>5.6</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>2.06</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.18</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>1.13</v>
       </c>
       <c r="S2" t="n">
-        <v>1.09</v>
+        <v>6.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="W2" t="n">
-        <v>1.96</v>
+        <v>1.62</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -736,10 +736,10 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>990</v>
+        <v>2.38</v>
       </c>
       <c r="AD2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,10 +748,10 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:10:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Digenis Ypsona</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Olympiakos Nicosia FC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.84</v>
+        <v>2.96</v>
       </c>
       <c r="G3" t="n">
-        <v>1.89</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>4.8</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>2.8</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>2.88</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39</v>
+        <v>1.9</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="N3" t="n">
-        <v>4.2</v>
+        <v>2.24</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.74</v>
       </c>
       <c r="P3" t="n">
-        <v>2.08</v>
+        <v>1.37</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.89</v>
+        <v>3.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.42</v>
+        <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>3.25</v>
+        <v>8.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.79</v>
+        <v>2.32</v>
       </c>
       <c r="U3" t="n">
-        <v>2.16</v>
+        <v>1.61</v>
       </c>
       <c r="V3" t="n">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="W3" t="n">
-        <v>2.12</v>
+        <v>1.43</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>7.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
         <v>17.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>550</v>
       </c>
       <c r="AJ3" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>550</v>
       </c>
       <c r="AM3" t="n">
-        <v>95</v>
+        <v>450</v>
       </c>
       <c r="AN3" t="n">
-        <v>11.5</v>
+        <v>120</v>
       </c>
       <c r="AO3" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:35:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.77</v>
+        <v>1.29</v>
       </c>
       <c r="G4" t="n">
-        <v>1.83</v>
+        <v>1.3</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>6.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.41</v>
       </c>
       <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.07</v>
       </c>
-      <c r="N4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.22</v>
-      </c>
       <c r="W4" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="Z4" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="AA4" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="n">
-        <v>120</v>
+        <v>420</v>
       </c>
       <c r="AF4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG4" t="n">
         <v>11</v>
       </c>
-      <c r="AG4" t="n">
-        <v>9</v>
-      </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>750</v>
       </c>
       <c r="AN4" t="n">
-        <v>12.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Digenis Ypsona</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia FC</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.7</v>
+        <v>1.92</v>
       </c>
       <c r="G5" t="n">
-        <v>2.86</v>
+        <v>1.97</v>
       </c>
       <c r="H5" t="n">
-        <v>3.15</v>
+        <v>4.7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.35</v>
+        <v>4.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.92</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="L5" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="M5" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="P5" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.46</v>
+        <v>2.32</v>
       </c>
       <c r="R5" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="U5" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V5" t="n">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="W5" t="n">
-        <v>1.54</v>
+        <v>2.06</v>
       </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA5" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="AB5" t="n">
-        <v>15.5</v>
+        <v>7.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>19.5</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ5" t="n">
-        <v>900</v>
+        <v>22</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.2</v>
+        <v>2.26</v>
       </c>
       <c r="G6" t="n">
-        <v>1.21</v>
+        <v>2.28</v>
       </c>
       <c r="H6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH6" t="n">
         <v>23</v>
       </c>
-      <c r="I6" t="n">
-        <v>27</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.1</v>
+        <v>36</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.88</v>
+        <v>2.54</v>
       </c>
       <c r="G7" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
-        <v>4.4</v>
+        <v>2.74</v>
       </c>
       <c r="I7" t="n">
-        <v>4.7</v>
+        <v>2.82</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="S7" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="T7" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="U7" t="n">
-        <v>2.22</v>
+        <v>2.6</v>
       </c>
       <c r="V7" t="n">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="W7" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="X7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF7" t="n">
         <v>19.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO7" t="n">
         <v>18</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G8" t="n">
         <v>2.22</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R8" t="n">
         <v>2.24</v>
       </c>
-      <c r="H8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.2</v>
-      </c>
       <c r="S8" t="n">
-        <v>5.6</v>
+        <v>1.77</v>
       </c>
       <c r="T8" t="n">
-        <v>2.18</v>
+        <v>1.33</v>
       </c>
       <c r="U8" t="n">
-        <v>1.82</v>
+        <v>3.85</v>
       </c>
       <c r="V8" t="n">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="W8" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X8" t="n">
-        <v>8.199999999999999</v>
+        <v>55</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.5</v>
+        <v>36</v>
       </c>
       <c r="Z8" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AB8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
         <v>7</v>
       </c>
-      <c r="AC8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AO8" t="n">
         <v>12</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.64</v>
+        <v>2.14</v>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.78</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>4.9</v>
+        <v>8.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="P9" t="n">
-        <v>2.34</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.71</v>
+        <v>1.37</v>
       </c>
       <c r="R9" t="n">
-        <v>1.52</v>
+        <v>2.06</v>
       </c>
       <c r="S9" t="n">
-        <v>2.84</v>
+        <v>1.91</v>
       </c>
       <c r="T9" t="n">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="U9" t="n">
-        <v>2.54</v>
+        <v>3.25</v>
       </c>
       <c r="V9" t="n">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="W9" t="n">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="X9" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK9" t="n">
         <v>22</v>
       </c>
-      <c r="Y9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>27</v>
-      </c>
       <c r="AL9" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AM9" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN9" t="n">
-        <v>18</v>
+        <v>7.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="G10" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K10" t="n">
         <v>4.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="R10" t="n">
-        <v>2.3</v>
+        <v>1.86</v>
       </c>
       <c r="S10" t="n">
-        <v>1.75</v>
+        <v>2.12</v>
       </c>
       <c r="T10" t="n">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="U10" t="n">
-        <v>3.7</v>
+        <v>2.84</v>
       </c>
       <c r="V10" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="W10" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="X10" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z10" t="n">
         <v>40</v>
       </c>
       <c r="AA10" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="AB10" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AC10" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AK10" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AM10" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AO10" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="I11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.15</v>
       </c>
-      <c r="J11" t="n">
-        <v>4.5</v>
-      </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>3.45</v>
       </c>
       <c r="L11" t="n">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X11" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB11" t="n">
         <v>8.6</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="U11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X11" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>23</v>
-      </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AE11" t="n">
-        <v>28</v>
+        <v>370</v>
       </c>
       <c r="AF11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>14.5</v>
+        <v>38</v>
       </c>
       <c r="AI11" t="n">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>900</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AL11" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.6</v>
+        <v>55</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>AZ Picerno ASD</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.81</v>
+        <v>2.38</v>
       </c>
       <c r="G12" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.85</v>
       </c>
-      <c r="H12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.78</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>2.16</v>
+        <v>1.68</v>
       </c>
       <c r="X12" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="Y12" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="n">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AD12" t="n">
         <v>18</v>
       </c>
       <c r="AE12" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AF12" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AK12" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="AL12" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>55</v>
+        <v>480</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.8</v>
+        <v>32</v>
       </c>
       <c r="AO12" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.08</v>
+        <v>2.78</v>
       </c>
       <c r="G13" t="n">
-        <v>2.22</v>
+        <v>2.84</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.15</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L13" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.47</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.28</v>
-      </c>
       <c r="W13" t="n">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="X13" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>9.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>100</v>
+        <v>18.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>34</v>
+        <v>13.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>370</v>
+        <v>42</v>
       </c>
       <c r="AF13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH13" t="n">
         <v>21</v>
       </c>
-      <c r="AG13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH13" t="n">
+      <c r="AI13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL13" t="n">
         <v>60</v>
       </c>
-      <c r="AI13" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>48</v>
-      </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AO13" t="n">
-        <v>600</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AZ Picerno ASD</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.38</v>
+        <v>1.27</v>
       </c>
       <c r="G14" t="n">
-        <v>2.46</v>
+        <v>1.28</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>14.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>15.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>6.6</v>
       </c>
       <c r="K14" t="n">
-        <v>3.5</v>
+        <v>6.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>3.05</v>
+        <v>4.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.72</v>
       </c>
-      <c r="Q14" t="n">
-        <v>2.28</v>
-      </c>
       <c r="R14" t="n">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
       <c r="S14" t="n">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="T14" t="n">
-        <v>1.78</v>
+        <v>2.36</v>
       </c>
       <c r="U14" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="V14" t="n">
-        <v>1.39</v>
+        <v>1.07</v>
       </c>
       <c r="W14" t="n">
-        <v>1.68</v>
+        <v>4.5</v>
       </c>
       <c r="X14" t="n">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="AA14" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>14.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="AE14" t="n">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="AF14" t="n">
-        <v>17</v>
+        <v>6.8</v>
       </c>
       <c r="AG14" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AI14" t="n">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="AJ14" t="n">
-        <v>34</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AM14" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="AN14" t="n">
-        <v>32</v>
+        <v>5.1</v>
       </c>
       <c r="AO14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,84 +2408,84 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="G15" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N15" t="n">
         <v>3.15</v>
       </c>
-      <c r="L15" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.98</v>
-      </c>
       <c r="O15" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="P15" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R15" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="T15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U15" t="n">
         <v>2</v>
       </c>
-      <c r="U15" t="n">
-        <v>1.94</v>
-      </c>
       <c r="V15" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W15" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="X15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y15" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="Y15" t="n">
-        <v>9.4</v>
-      </c>
       <c r="Z15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB15" t="n">
         <v>8.800000000000001</v>
@@ -2497,307 +2497,37 @@
         <v>13.5</v>
       </c>
       <c r="AE15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>42</v>
       </c>
-      <c r="AF15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ15" t="n">
+      <c r="AK15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO15" t="n">
         <v>46</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Italian Serie A</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2026-01-12</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>US Cremonese</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="H16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>16</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X16" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>800</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>300</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>250</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Spanish La Liga</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2026-01-12</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Sevilla</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Celta Vigo</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="X17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:35:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="H2" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="I2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.75</v>
+        <v>1000</v>
       </c>
       <c r="K2" t="n">
-        <v>2.06</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,28 +697,28 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.62</v>
+        <v>500</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -736,7 +736,7 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.38</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -757,10 +757,10 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>1.39</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Digenis Ypsona</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia FC</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.96</v>
+        <v>1.1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.1</v>
+        <v>1.12</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>160</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>2.8</v>
+        <v>9.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.88</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.12</v>
+        <v>1.94</v>
       </c>
       <c r="S3" t="n">
-        <v>8.6</v>
+        <v>2.04</v>
       </c>
       <c r="T3" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.43</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
         <v>18.5</v>
       </c>
-      <c r="AG3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>550</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>550</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>450</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>120</v>
-      </c>
       <c r="AO3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:49</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.29</v>
+        <v>5.1</v>
       </c>
       <c r="G4" t="n">
-        <v>1.3</v>
+        <v>5.4</v>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>4.3</v>
       </c>
       <c r="I4" t="n">
-        <v>17</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="K4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S4" t="n">
+        <v>8</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD4" t="n">
         <v>6.4</v>
       </c>
-      <c r="L4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="X4" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>75</v>
-      </c>
       <c r="AE4" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>6.8</v>
       </c>
       <c r="AH4" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>270</v>
       </c>
       <c r="AM4" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="G5" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="H5" t="n">
-        <v>4.7</v>
+        <v>3.45</v>
       </c>
       <c r="I5" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>3.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="P5" t="n">
-        <v>1.74</v>
+        <v>1.15</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.32</v>
+        <v>1.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.96</v>
       </c>
       <c r="S5" t="n">
-        <v>4.5</v>
+        <v>1.98</v>
       </c>
       <c r="T5" t="n">
-        <v>2.02</v>
+        <v>1.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.89</v>
+        <v>2.92</v>
       </c>
       <c r="V5" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AE5" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>990</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.26</v>
+        <v>1.72</v>
       </c>
       <c r="G6" t="n">
-        <v>2.28</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J6" t="n">
         <v>4.4</v>
       </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
       <c r="K6" t="n">
-        <v>3.05</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.62</v>
+        <v>1.41</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.6</v>
+        <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>1.52</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.9</v>
+        <v>1.71</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="T6" t="n">
-        <v>2.24</v>
+        <v>1.71</v>
       </c>
       <c r="U6" t="n">
-        <v>1.79</v>
+        <v>2.3</v>
       </c>
       <c r="V6" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="W6" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="X6" t="n">
-        <v>7.8</v>
+        <v>24</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AA6" t="n">
         <v>120</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
         <v>11.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM6" t="n">
         <v>110</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL6" t="n">
+      <c r="AN6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO6" t="n">
         <v>70</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>140</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.54</v>
+        <v>2.08</v>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>2.18</v>
       </c>
       <c r="H7" t="n">
-        <v>2.74</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.82</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>5.3</v>
+        <v>3.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>2.4</v>
+        <v>1.77</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.69</v>
+        <v>2.16</v>
       </c>
       <c r="R7" t="n">
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.59</v>
+        <v>1.87</v>
       </c>
       <c r="U7" t="n">
-        <v>2.6</v>
+        <v>2.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.54</v>
+        <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AA7" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="AF7" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>14.5</v>
+        <v>36</v>
       </c>
       <c r="AI7" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL7" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM7" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="AN7" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>AZ Picerno ASD</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.18</v>
+        <v>2.68</v>
       </c>
       <c r="G8" t="n">
-        <v>2.22</v>
+        <v>2.88</v>
       </c>
       <c r="H8" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="I8" t="n">
         <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>3.35</v>
       </c>
       <c r="L8" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.09</v>
+        <v>1.42</v>
       </c>
       <c r="P8" t="n">
-        <v>4.1</v>
+        <v>1.72</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>2.24</v>
+        <v>1.25</v>
       </c>
       <c r="S8" t="n">
-        <v>1.77</v>
+        <v>4.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.33</v>
+        <v>1.89</v>
       </c>
       <c r="U8" t="n">
-        <v>3.85</v>
+        <v>1.95</v>
       </c>
       <c r="V8" t="n">
         <v>1.47</v>
       </c>
       <c r="W8" t="n">
-        <v>1.81</v>
+        <v>1.52</v>
       </c>
       <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="n">
         <v>55</v>
       </c>
-      <c r="Y8" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>19</v>
-      </c>
       <c r="AL8" t="n">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="AM8" t="n">
-        <v>34</v>
+        <v>480</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.14</v>
+        <v>2.8</v>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.82</v>
       </c>
       <c r="H9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.1</v>
       </c>
-      <c r="I9" t="n">
-        <v>3.25</v>
-      </c>
       <c r="J9" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.21</v>
+        <v>1.55</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>8.6</v>
+        <v>2.96</v>
       </c>
       <c r="O9" t="n">
-        <v>1.12</v>
+        <v>1.49</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>1.64</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.37</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
-        <v>2.06</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>1.91</v>
+        <v>5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>3.25</v>
+        <v>1.94</v>
       </c>
       <c r="V9" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="W9" t="n">
-        <v>1.83</v>
+        <v>1.55</v>
       </c>
       <c r="X9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN9" t="n">
         <v>40</v>
       </c>
-      <c r="Y9" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AO9" t="n">
-        <v>13.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.87</v>
+        <v>1.27</v>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>1.28</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>15.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.3</v>
+        <v>16</v>
       </c>
       <c r="J10" t="n">
-        <v>4.4</v>
+        <v>6.6</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>6.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>7.2</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>3.1</v>
+        <v>2.32</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.46</v>
+        <v>1.74</v>
       </c>
       <c r="R10" t="n">
-        <v>1.86</v>
+        <v>1.51</v>
       </c>
       <c r="S10" t="n">
-        <v>2.12</v>
+        <v>2.88</v>
       </c>
       <c r="T10" t="n">
-        <v>1.51</v>
+        <v>2.36</v>
       </c>
       <c r="U10" t="n">
-        <v>2.84</v>
+        <v>1.71</v>
       </c>
       <c r="V10" t="n">
-        <v>1.31</v>
+        <v>1.06</v>
       </c>
       <c r="W10" t="n">
-        <v>2.08</v>
+        <v>4.6</v>
       </c>
       <c r="X10" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Z10" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="AA10" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>18</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AD10" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AE10" t="n">
-        <v>38</v>
+        <v>330</v>
       </c>
       <c r="AF10" t="n">
-        <v>16.5</v>
+        <v>6.8</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="AJ10" t="n">
-        <v>22</v>
+        <v>8.6</v>
       </c>
       <c r="AK10" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AL10" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,665 +1868,125 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.12</v>
+        <v>2.86</v>
       </c>
       <c r="G11" t="n">
-        <v>2.24</v>
+        <v>2.88</v>
       </c>
       <c r="H11" t="n">
-        <v>3.85</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>3.05</v>
       </c>
       <c r="J11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.15</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="P11" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.18</v>
+        <v>2.52</v>
       </c>
       <c r="R11" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="T11" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="V11" t="n">
-        <v>1.29</v>
+        <v>1.49</v>
       </c>
       <c r="W11" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="X11" t="n">
-        <v>20</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y11" t="n">
-        <v>23</v>
+        <v>9.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>28</v>
+        <v>13.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>370</v>
+        <v>40</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>38</v>
+        <v>19.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>900</v>
+        <v>46</v>
       </c>
       <c r="AK11" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AO11" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Italian Serie C</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-01-12</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>FC Giugliano</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>AZ Picerno ASD</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="X12" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>480</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Spanish Segunda Division</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-01-12</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Cordoba</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="X13" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Italian Serie A</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2026-01-12</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>US Cremonese</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="H14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>330</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>220</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Spanish La Liga</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2026-01-12</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Sevilla</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Celta Vigo</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="X15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO15" t="n">
         <v>46</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,75 +653,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L2" t="n">
         <v>1.01</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.96</v>
       </c>
       <c r="S2" t="n">
-        <v>3.7</v>
+        <v>1.98</v>
       </c>
       <c r="T2" t="n">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.2</v>
+        <v>2.92</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>500</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -739,10 +739,10 @@
         <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
@@ -757,19 +757,19 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.39</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>8.4</v>
+        <v>990</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,90 +788,90 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.1</v>
+        <v>6.2</v>
       </c>
       <c r="G3" t="n">
-        <v>1.12</v>
+        <v>7.2</v>
       </c>
       <c r="H3" t="n">
-        <v>160</v>
+        <v>7.4</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="J3" t="n">
-        <v>9.6</v>
+        <v>1.37</v>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>1.4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="R3" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>2.04</v>
+        <v>390</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>1.16</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>1.46</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -880,13 +880,13 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -895,7 +895,7 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,81 +923,81 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:49</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>AZ Picerno ASD</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>48</v>
+      </c>
+      <c r="G4" t="n">
+        <v>430</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O4" t="n">
         <v>5.1</v>
       </c>
-      <c r="G4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
       <c r="R4" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="S4" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="V4" t="n">
-        <v>1.23</v>
+        <v>7.2</v>
       </c>
       <c r="W4" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>1.24</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1006,10 +1006,10 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.93</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.4</v>
+        <v>750</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,10 +1018,10 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>6.8</v>
+        <v>750</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1030,10 +1030,10 @@
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1042,13 +1042,13 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,75 +1058,75 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.98</v>
+        <v>14.5</v>
       </c>
       <c r="G5" t="n">
-        <v>2.04</v>
+        <v>15.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45</v>
+        <v>5.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>5.9</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>1.31</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>1.33</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="R5" t="n">
-        <v>1.96</v>
+        <v>1.03</v>
       </c>
       <c r="S5" t="n">
-        <v>1.98</v>
+        <v>21</v>
       </c>
       <c r="T5" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="X5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1141,19 +1141,19 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>1.34</v>
       </c>
       <c r="AD5" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AE5" t="n">
-        <v>980</v>
+        <v>300</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>240</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1165,16 +1165,16 @@
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="H6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>5</v>
       </c>
-      <c r="I6" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>1.23</v>
       </c>
-      <c r="P6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.3</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>2.3</v>
+        <v>500</v>
       </c>
       <c r="X6" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AO6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,666 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.08</v>
+        <v>3.7</v>
       </c>
       <c r="G7" t="n">
-        <v>2.18</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Q7" t="n">
         <v>4.1</v>
       </c>
-      <c r="I7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.16</v>
-      </c>
       <c r="R7" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="T7" t="n">
-        <v>1.87</v>
+        <v>6.4</v>
       </c>
       <c r="U7" t="n">
-        <v>2.04</v>
+        <v>1.13</v>
       </c>
       <c r="V7" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>1.85</v>
+        <v>1.36</v>
       </c>
       <c r="X7" t="n">
-        <v>11.5</v>
+        <v>2.44</v>
       </c>
       <c r="Y7" t="n">
-        <v>14</v>
+        <v>7.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AA7" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.4</v>
+        <v>5.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>17.5</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="AH7" t="n">
-        <v>36</v>
+        <v>370</v>
       </c>
       <c r="AI7" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Italian Serie C</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-01-12</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>FC Giugliano</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>AZ Picerno ASD</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>480</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Spanish Segunda Division</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-01-12</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Cordoba</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Italian Serie A</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-01-12</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>US Cremonese</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="H10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>16</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="X10" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>330</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Spanish La Liga</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-01-12</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Sevilla</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Celta Vigo</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
